--- a/1-data/Ebselen_plate_1.4.xlsx
+++ b/1-data/Ebselen_plate_1.4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garc286/RStudio/ebstein_mg/1-data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pate212/GitHub/ebstein_mg/1-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB01EC31-D980-5A44-91F0-BD2BCB6BF297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D7C1AF-24CE-C242-9802-9E399560BBF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="5" xr2:uid="{0BFC42FB-AF9A-6C4B-8713-04DD03B7C22F}"/>
+    <workbookView xWindow="35860" yWindow="1700" windowWidth="34560" windowHeight="19520" activeTab="5" xr2:uid="{0BFC42FB-AF9A-6C4B-8713-04DD03B7C22F}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="4" r:id="rId1"/>
@@ -19,8 +19,9 @@
     <sheet name="all plates" sheetId="3" r:id="rId4"/>
     <sheet name="post_stop soln scale" sheetId="6" r:id="rId5"/>
     <sheet name="30min post stop " sheetId="5" r:id="rId6"/>
+    <sheet name="30min post stop_kfp" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="170">
   <si>
     <t>Time</t>
   </si>
@@ -503,13 +504,61 @@
   </si>
   <si>
     <t>30min</t>
+  </si>
+  <si>
+    <t>Calibration</t>
+  </si>
+  <si>
+    <t>intensity</t>
+  </si>
+  <si>
+    <t>500uM</t>
+  </si>
+  <si>
+    <t>40uM</t>
+  </si>
+  <si>
+    <t>300uM</t>
+  </si>
+  <si>
+    <t>200uM</t>
+  </si>
+  <si>
+    <t>150uM</t>
+  </si>
+  <si>
+    <t>100uM</t>
+  </si>
+  <si>
+    <t>50uM</t>
+  </si>
+  <si>
+    <t>concentration</t>
+  </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>time_for_urea</t>
+  </si>
+  <si>
+    <t>inhibitor_concentration</t>
+  </si>
+  <si>
+    <t>cell_concentration</t>
+  </si>
+  <si>
+    <t>0uM</t>
+  </si>
+  <si>
+    <t>skip</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -536,6 +585,21 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="21">
@@ -660,7 +724,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -737,11 +801,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -805,9 +897,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -843,6 +932,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5053,25 +5155,25 @@
       <c r="B1" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23" t="s">
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23" t="s">
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23" t="s">
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="M1" s="23"/>
+      <c r="M1" s="43"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
@@ -6566,25 +6668,25 @@
       <c r="B1" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23" t="s">
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23" t="s">
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23" t="s">
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="M1" s="23"/>
+      <c r="M1" s="43"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
@@ -6629,34 +6731,34 @@
       <c r="A3" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="33">
+      <c r="B3" s="32">
         <v>0.89300000000000002</v>
       </c>
-      <c r="C3" s="33">
+      <c r="C3" s="32">
         <v>0.30299999999999999</v>
       </c>
-      <c r="D3" s="33">
+      <c r="D3" s="32">
         <v>0.19600000000000001</v>
       </c>
-      <c r="E3" s="33">
+      <c r="E3" s="32">
         <v>0.223</v>
       </c>
-      <c r="F3" s="35">
+      <c r="F3" s="34">
         <v>0.373</v>
       </c>
-      <c r="G3" s="35">
+      <c r="G3" s="34">
         <v>0.186</v>
       </c>
-      <c r="H3" s="35">
+      <c r="H3" s="34">
         <v>0.25900000000000001</v>
       </c>
-      <c r="I3" s="25">
+      <c r="I3" s="24">
         <v>0.35499999999999998</v>
       </c>
-      <c r="J3" s="25">
+      <c r="J3" s="24">
         <v>0.17100000000000001</v>
       </c>
-      <c r="K3" s="25">
+      <c r="K3" s="24">
         <v>0.33200000000000002</v>
       </c>
       <c r="L3" s="21">
@@ -6670,34 +6772,34 @@
       <c r="A4" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B4" s="33">
+      <c r="B4" s="32">
         <v>0.77700000000000002</v>
       </c>
-      <c r="C4" s="33">
+      <c r="C4" s="32">
         <v>0.308</v>
       </c>
-      <c r="D4" s="33">
+      <c r="D4" s="32">
         <v>0.192</v>
       </c>
-      <c r="E4" s="33">
+      <c r="E4" s="32">
         <v>0.22500000000000001</v>
       </c>
-      <c r="F4" s="35">
+      <c r="F4" s="34">
         <v>0.372</v>
       </c>
-      <c r="G4" s="35">
+      <c r="G4" s="34">
         <v>0.18</v>
       </c>
-      <c r="H4" s="35">
+      <c r="H4" s="34">
         <v>0.255</v>
       </c>
-      <c r="I4" s="25">
+      <c r="I4" s="24">
         <v>0.35699999999999998</v>
       </c>
-      <c r="J4" s="25">
+      <c r="J4" s="24">
         <v>0.17899999999999999</v>
       </c>
-      <c r="K4" s="25">
+      <c r="K4" s="24">
         <v>0.27600000000000002</v>
       </c>
       <c r="L4" s="21">
@@ -6711,34 +6813,34 @@
       <c r="A5" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="32">
         <v>0.57399999999999995</v>
       </c>
-      <c r="C5" s="33">
+      <c r="C5" s="32">
         <v>0.34899999999999998</v>
       </c>
-      <c r="D5" s="33">
+      <c r="D5" s="32">
         <v>0.218</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E5" s="32">
         <v>0.22600000000000001</v>
       </c>
-      <c r="F5" s="35">
+      <c r="F5" s="34">
         <v>0.41899999999999998</v>
       </c>
-      <c r="G5" s="35">
+      <c r="G5" s="34">
         <v>0.23799999999999999</v>
       </c>
-      <c r="H5" s="35">
+      <c r="H5" s="34">
         <v>0.27500000000000002</v>
       </c>
-      <c r="I5" s="25">
+      <c r="I5" s="24">
         <v>0.39200000000000002</v>
       </c>
-      <c r="J5" s="25">
+      <c r="J5" s="24">
         <v>0.20799999999999999</v>
       </c>
-      <c r="K5" s="25">
+      <c r="K5" s="24">
         <v>0.26800000000000002</v>
       </c>
       <c r="L5" s="21">
@@ -6752,34 +6854,34 @@
       <c r="A6" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B6" s="32">
         <v>0.45100000000000001</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C6" s="32">
         <v>0.33400000000000002</v>
       </c>
-      <c r="D6" s="33">
+      <c r="D6" s="32">
         <v>0.22</v>
       </c>
-      <c r="E6" s="33">
+      <c r="E6" s="32">
         <v>0.22800000000000001</v>
       </c>
-      <c r="F6" s="35">
+      <c r="F6" s="34">
         <v>0.38700000000000001</v>
       </c>
-      <c r="G6" s="35">
+      <c r="G6" s="34">
         <v>0.24299999999999999</v>
       </c>
-      <c r="H6" s="35">
+      <c r="H6" s="34">
         <v>0.26900000000000002</v>
       </c>
-      <c r="I6" s="25">
+      <c r="I6" s="24">
         <v>0.373</v>
       </c>
-      <c r="J6" s="25">
+      <c r="J6" s="24">
         <v>0.20399999999999999</v>
       </c>
-      <c r="K6" s="25">
+      <c r="K6" s="24">
         <v>0.254</v>
       </c>
       <c r="L6" s="21">
@@ -6793,34 +6895,34 @@
       <c r="A7" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B7" s="32">
         <v>0.39400000000000002</v>
       </c>
-      <c r="C7" s="33">
+      <c r="C7" s="32">
         <v>0.33600000000000002</v>
       </c>
-      <c r="D7" s="33">
+      <c r="D7" s="32">
         <v>0.24099999999999999</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="32">
         <v>0.23799999999999999</v>
       </c>
-      <c r="F7" s="35">
+      <c r="F7" s="34">
         <v>0.42599999999999999</v>
       </c>
-      <c r="G7" s="35">
+      <c r="G7" s="34">
         <v>0.255</v>
       </c>
-      <c r="H7" s="35">
+      <c r="H7" s="34">
         <v>0.28100000000000003</v>
       </c>
-      <c r="I7" s="25">
+      <c r="I7" s="24">
         <v>0.42399999999999999</v>
       </c>
-      <c r="J7" s="25">
+      <c r="J7" s="24">
         <v>0.22600000000000001</v>
       </c>
-      <c r="K7" s="25">
+      <c r="K7" s="24">
         <v>0.27300000000000002</v>
       </c>
       <c r="L7" s="21">
@@ -6834,34 +6936,34 @@
       <c r="A8" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="33">
+      <c r="B8" s="32">
         <v>0.38200000000000001</v>
       </c>
-      <c r="C8" s="33">
+      <c r="C8" s="32">
         <v>0.37</v>
       </c>
-      <c r="D8" s="33">
+      <c r="D8" s="32">
         <v>0.218</v>
       </c>
-      <c r="E8" s="33">
+      <c r="E8" s="32">
         <v>0.24</v>
       </c>
-      <c r="F8" s="35">
+      <c r="F8" s="34">
         <v>0.39100000000000001</v>
       </c>
-      <c r="G8" s="35">
+      <c r="G8" s="34">
         <v>0.246</v>
       </c>
-      <c r="H8" s="35">
+      <c r="H8" s="34">
         <v>0.28699999999999998</v>
       </c>
-      <c r="I8" s="25">
+      <c r="I8" s="24">
         <v>0.48099999999999998</v>
       </c>
-      <c r="J8" s="25">
+      <c r="J8" s="24">
         <v>0.20399999999999999</v>
       </c>
-      <c r="K8" s="25">
+      <c r="K8" s="24">
         <v>0.25800000000000001</v>
       </c>
       <c r="L8" s="21">
@@ -6875,34 +6977,34 @@
       <c r="A9" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B9" s="33">
+      <c r="B9" s="32">
         <v>0.26300000000000001</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C9" s="32">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="D9" s="33">
+      <c r="D9" s="32">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="E9" s="33">
+      <c r="E9" s="32">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="F9" s="35">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="G9" s="35">
+      <c r="F9" s="34">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="G9" s="34">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="H9" s="35">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="I9" s="25">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="J9" s="25">
+      <c r="H9" s="34">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="I9" s="24">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="J9" s="24">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="K9" s="25">
+      <c r="K9" s="24">
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="L9" s="21">
@@ -6916,34 +7018,34 @@
       <c r="A10" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B10" s="33">
+      <c r="B10" s="32">
         <v>0.16800000000000001</v>
       </c>
-      <c r="C10" s="33">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="D10" s="33">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="E10" s="33">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="F10" s="35">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="G10" s="35">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="H10" s="35">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="I10" s="25">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="J10" s="25">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="K10" s="25">
+      <c r="C10" s="32">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="D10" s="32">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="E10" s="32">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="F10" s="34">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="G10" s="34">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="H10" s="34">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="I10" s="24">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="J10" s="24">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="K10" s="24">
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="L10" s="21">
@@ -6996,34 +7098,34 @@
       <c r="A12" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B12" s="35">
+      <c r="B12" s="34">
         <v>2.028</v>
       </c>
-      <c r="C12" s="35">
+      <c r="C12" s="34">
         <v>0.437</v>
       </c>
-      <c r="D12" s="35">
+      <c r="D12" s="34">
         <v>0.23699999999999999</v>
       </c>
-      <c r="E12" s="35">
+      <c r="E12" s="34">
         <v>0.29399999999999998</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="24">
         <v>0.39900000000000002</v>
       </c>
-      <c r="G12" s="25">
+      <c r="G12" s="24">
         <v>0.193</v>
       </c>
-      <c r="H12" s="25">
+      <c r="H12" s="24">
         <v>0.27600000000000002</v>
       </c>
-      <c r="I12" s="27">
+      <c r="I12" s="26">
         <v>0.37</v>
       </c>
-      <c r="J12" s="27">
+      <c r="J12" s="26">
         <v>0.17199999999999999</v>
       </c>
-      <c r="K12" s="27">
+      <c r="K12" s="26">
         <v>0.34599999999999997</v>
       </c>
       <c r="L12" s="21">
@@ -7037,34 +7139,34 @@
       <c r="A13" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B13" s="35">
+      <c r="B13" s="34">
         <v>1.714</v>
       </c>
-      <c r="C13" s="35">
+      <c r="C13" s="34">
         <v>0.45600000000000002</v>
       </c>
-      <c r="D13" s="35">
+      <c r="D13" s="34">
         <v>0.23200000000000001</v>
       </c>
-      <c r="E13" s="35">
+      <c r="E13" s="34">
         <v>0.28899999999999998</v>
       </c>
-      <c r="F13" s="25">
+      <c r="F13" s="24">
         <v>0.40500000000000003</v>
       </c>
-      <c r="G13" s="25">
+      <c r="G13" s="24">
         <v>0.183</v>
       </c>
-      <c r="H13" s="25">
+      <c r="H13" s="24">
         <v>0.27</v>
       </c>
-      <c r="I13" s="27">
+      <c r="I13" s="26">
         <v>0.371</v>
       </c>
-      <c r="J13" s="27">
+      <c r="J13" s="26">
         <v>0.18</v>
       </c>
-      <c r="K13" s="27">
+      <c r="K13" s="26">
         <v>0.28299999999999997</v>
       </c>
       <c r="L13" s="21">
@@ -7078,34 +7180,34 @@
       <c r="A14" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B14" s="35">
+      <c r="B14" s="34">
         <v>1.3839999999999999</v>
       </c>
-      <c r="C14" s="35">
+      <c r="C14" s="34">
         <v>0.53700000000000003</v>
       </c>
-      <c r="D14" s="35">
+      <c r="D14" s="34">
         <v>0.26300000000000001</v>
       </c>
-      <c r="E14" s="35">
+      <c r="E14" s="34">
         <v>0.29499999999999998</v>
       </c>
-      <c r="F14" s="25">
+      <c r="F14" s="24">
         <v>0.45</v>
       </c>
-      <c r="G14" s="25">
+      <c r="G14" s="24">
         <v>0.247</v>
       </c>
-      <c r="H14" s="25">
+      <c r="H14" s="24">
         <v>0.28999999999999998</v>
       </c>
-      <c r="I14" s="27">
+      <c r="I14" s="26">
         <v>0.40899999999999997</v>
       </c>
-      <c r="J14" s="27">
+      <c r="J14" s="26">
         <v>0.21099999999999999</v>
       </c>
-      <c r="K14" s="27">
+      <c r="K14" s="26">
         <v>0.27500000000000002</v>
       </c>
       <c r="L14" s="21">
@@ -7119,34 +7221,34 @@
       <c r="A15" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B15" s="35">
+      <c r="B15" s="34">
         <v>1.008</v>
       </c>
-      <c r="C15" s="35">
+      <c r="C15" s="34">
         <v>0.5</v>
       </c>
-      <c r="D15" s="35">
+      <c r="D15" s="34">
         <v>0.26600000000000001</v>
       </c>
-      <c r="E15" s="35">
+      <c r="E15" s="34">
         <v>0.30199999999999999</v>
       </c>
-      <c r="F15" s="25">
+      <c r="F15" s="24">
         <v>0.42</v>
       </c>
-      <c r="G15" s="25">
+      <c r="G15" s="24">
         <v>0.25700000000000001</v>
       </c>
-      <c r="H15" s="25">
+      <c r="H15" s="24">
         <v>0.28399999999999997</v>
       </c>
-      <c r="I15" s="27">
+      <c r="I15" s="26">
         <v>0.38500000000000001</v>
       </c>
-      <c r="J15" s="27">
+      <c r="J15" s="26">
         <v>0.20599999999999999</v>
       </c>
-      <c r="K15" s="27">
+      <c r="K15" s="26">
         <v>0.26</v>
       </c>
       <c r="L15" s="21">
@@ -7160,34 +7262,34 @@
       <c r="A16" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B16" s="35">
+      <c r="B16" s="34">
         <v>0.82199999999999995</v>
       </c>
-      <c r="C16" s="35">
+      <c r="C16" s="34">
         <v>0.52900000000000003</v>
       </c>
-      <c r="D16" s="35">
+      <c r="D16" s="34">
         <v>0.30299999999999999</v>
       </c>
-      <c r="E16" s="35">
+      <c r="E16" s="34">
         <v>0.313</v>
       </c>
-      <c r="F16" s="25">
+      <c r="F16" s="24">
         <v>0.46500000000000002</v>
       </c>
-      <c r="G16" s="25">
+      <c r="G16" s="24">
         <v>0.26700000000000002</v>
       </c>
-      <c r="H16" s="25">
+      <c r="H16" s="24">
         <v>0.29599999999999999</v>
       </c>
-      <c r="I16" s="27">
+      <c r="I16" s="26">
         <v>0.44</v>
       </c>
-      <c r="J16" s="27">
+      <c r="J16" s="26">
         <v>0.23100000000000001</v>
       </c>
-      <c r="K16" s="27">
+      <c r="K16" s="26">
         <v>0.28000000000000003</v>
       </c>
       <c r="L16" s="21">
@@ -7201,34 +7303,34 @@
       <c r="A17" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B17" s="35">
+      <c r="B17" s="34">
         <v>0.67600000000000005</v>
       </c>
-      <c r="C17" s="35">
+      <c r="C17" s="34">
         <v>0.55600000000000005</v>
       </c>
-      <c r="D17" s="35">
+      <c r="D17" s="34">
         <v>0.27200000000000002</v>
       </c>
-      <c r="E17" s="35">
+      <c r="E17" s="34">
         <v>0.318</v>
       </c>
-      <c r="F17" s="25">
+      <c r="F17" s="24">
         <v>0.42199999999999999</v>
       </c>
-      <c r="G17" s="25">
+      <c r="G17" s="24">
         <v>0.25700000000000001</v>
       </c>
-      <c r="H17" s="25">
+      <c r="H17" s="24">
         <v>0.30499999999999999</v>
       </c>
-      <c r="I17" s="27">
+      <c r="I17" s="26">
         <v>0.501</v>
       </c>
-      <c r="J17" s="27">
+      <c r="J17" s="26">
         <v>0.20599999999999999</v>
       </c>
-      <c r="K17" s="27">
+      <c r="K17" s="26">
         <v>0.26500000000000001</v>
       </c>
       <c r="L17" s="21">
@@ -7242,34 +7344,34 @@
       <c r="A18" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B18" s="35">
+      <c r="B18" s="34">
         <v>0.47</v>
       </c>
-      <c r="C18" s="35">
+      <c r="C18" s="34">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="D18" s="35">
+      <c r="D18" s="34">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="E18" s="35">
+      <c r="E18" s="34">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="F18" s="25">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="G18" s="25">
+      <c r="F18" s="24">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="G18" s="24">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="H18" s="25">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="I18" s="27">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="J18" s="27">
+      <c r="H18" s="24">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="I18" s="26">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="J18" s="26">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="K18" s="27">
+      <c r="K18" s="26">
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="L18" s="21">
@@ -7283,34 +7385,34 @@
       <c r="A19" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B19" s="35">
+      <c r="B19" s="34">
         <v>0.251</v>
       </c>
-      <c r="C19" s="35">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="D19" s="35">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="E19" s="35">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="F19" s="25">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="G19" s="25">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="H19" s="25">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="I19" s="27">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="J19" s="27">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="K19" s="27">
+      <c r="C19" s="34">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="D19" s="34">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="E19" s="34">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="F19" s="24">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="G19" s="24">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="H19" s="24">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="I19" s="26">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="J19" s="26">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="K19" s="26">
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="L19" s="21">
@@ -7363,34 +7465,34 @@
       <c r="A21" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B21" s="25">
+      <c r="B21" s="24">
         <v>2.0960000000000001</v>
       </c>
-      <c r="C21" s="25">
+      <c r="C21" s="24">
         <v>0.504</v>
       </c>
-      <c r="D21" s="25">
+      <c r="D21" s="24">
         <v>0.255</v>
       </c>
-      <c r="E21" s="25">
+      <c r="E21" s="24">
         <v>0.32600000000000001</v>
       </c>
-      <c r="F21" s="27">
+      <c r="F21" s="26">
         <v>0.41899999999999998</v>
       </c>
-      <c r="G21" s="27">
+      <c r="G21" s="26">
         <v>0.19700000000000001</v>
       </c>
-      <c r="H21" s="27">
+      <c r="H21" s="26">
         <v>0.28699999999999998</v>
       </c>
-      <c r="I21" s="29">
+      <c r="I21" s="28">
         <v>0.38100000000000001</v>
       </c>
-      <c r="J21" s="29">
+      <c r="J21" s="28">
         <v>0.17399999999999999</v>
       </c>
-      <c r="K21" s="29">
+      <c r="K21" s="28">
         <v>0.35899999999999999</v>
       </c>
       <c r="L21" s="21">
@@ -7404,34 +7506,34 @@
       <c r="A22" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B22" s="25">
+      <c r="B22" s="24">
         <v>1.7450000000000001</v>
       </c>
-      <c r="C22" s="25">
+      <c r="C22" s="24">
         <v>0.52500000000000002</v>
       </c>
-      <c r="D22" s="25">
+      <c r="D22" s="24">
         <v>0.249</v>
       </c>
-      <c r="E22" s="25">
+      <c r="E22" s="24">
         <v>0.32300000000000001</v>
       </c>
-      <c r="F22" s="27">
+      <c r="F22" s="26">
         <v>0.42599999999999999</v>
       </c>
-      <c r="G22" s="27">
+      <c r="G22" s="26">
         <v>0.185</v>
       </c>
-      <c r="H22" s="27">
+      <c r="H22" s="26">
         <v>0.28199999999999997</v>
       </c>
-      <c r="I22" s="29">
+      <c r="I22" s="28">
         <v>0.38200000000000001</v>
       </c>
-      <c r="J22" s="29">
+      <c r="J22" s="28">
         <v>0.182</v>
       </c>
-      <c r="K22" s="29">
+      <c r="K22" s="28">
         <v>0.28899999999999998</v>
       </c>
       <c r="L22" s="21">
@@ -7445,34 +7547,34 @@
       <c r="A23" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B23" s="25">
+      <c r="B23" s="24">
         <v>1.4239999999999999</v>
       </c>
-      <c r="C23" s="25">
+      <c r="C23" s="24">
         <v>0.61899999999999999</v>
       </c>
-      <c r="D23" s="25">
+      <c r="D23" s="24">
         <v>0.28299999999999997</v>
       </c>
-      <c r="E23" s="25">
+      <c r="E23" s="24">
         <v>0.33200000000000002</v>
       </c>
-      <c r="F23" s="27">
+      <c r="F23" s="26">
         <v>0.47</v>
       </c>
-      <c r="G23" s="27">
+      <c r="G23" s="26">
         <v>0.25600000000000001</v>
       </c>
-      <c r="H23" s="27">
+      <c r="H23" s="26">
         <v>0.30199999999999999</v>
       </c>
-      <c r="I23" s="29">
+      <c r="I23" s="28">
         <v>0.42199999999999999</v>
       </c>
-      <c r="J23" s="29">
+      <c r="J23" s="28">
         <v>0.214</v>
       </c>
-      <c r="K23" s="29">
+      <c r="K23" s="28">
         <v>0.28100000000000003</v>
       </c>
       <c r="L23" s="21">
@@ -7486,34 +7588,34 @@
       <c r="A24" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B24" s="25">
+      <c r="B24" s="24">
         <v>1.0569999999999999</v>
       </c>
-      <c r="C24" s="25">
+      <c r="C24" s="24">
         <v>0.57899999999999996</v>
       </c>
-      <c r="D24" s="25">
+      <c r="D24" s="24">
         <v>0.28699999999999998</v>
       </c>
-      <c r="E24" s="25">
+      <c r="E24" s="24">
         <v>0.34699999999999998</v>
       </c>
-      <c r="F24" s="27">
+      <c r="F24" s="26">
         <v>0.443</v>
       </c>
-      <c r="G24" s="27">
+      <c r="G24" s="26">
         <v>0.26500000000000001</v>
       </c>
-      <c r="H24" s="27">
+      <c r="H24" s="26">
         <v>0.29499999999999998</v>
       </c>
-      <c r="I24" s="29">
+      <c r="I24" s="28">
         <v>0.39500000000000002</v>
       </c>
-      <c r="J24" s="29">
+      <c r="J24" s="28">
         <v>0.20899999999999999</v>
       </c>
-      <c r="K24" s="29">
+      <c r="K24" s="28">
         <v>0.26600000000000001</v>
       </c>
       <c r="L24" s="21">
@@ -7527,34 +7629,34 @@
       <c r="A25" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B25" s="25">
+      <c r="B25" s="24">
         <v>0.86899999999999999</v>
       </c>
-      <c r="C25" s="25">
+      <c r="C25" s="24">
         <v>0.60899999999999999</v>
       </c>
-      <c r="D25" s="25">
+      <c r="D25" s="24">
         <v>0.33</v>
       </c>
-      <c r="E25" s="25">
+      <c r="E25" s="24">
         <v>0.35599999999999998</v>
       </c>
-      <c r="F25" s="27">
+      <c r="F25" s="26">
         <v>0.48699999999999999</v>
       </c>
-      <c r="G25" s="27">
+      <c r="G25" s="26">
         <v>0.27600000000000002</v>
       </c>
-      <c r="H25" s="27">
+      <c r="H25" s="26">
         <v>0.309</v>
       </c>
-      <c r="I25" s="29">
+      <c r="I25" s="28">
         <v>0.45500000000000002</v>
       </c>
-      <c r="J25" s="29">
+      <c r="J25" s="28">
         <v>0.23499999999999999</v>
       </c>
-      <c r="K25" s="29">
+      <c r="K25" s="28">
         <v>0.28599999999999998</v>
       </c>
       <c r="L25" s="21">
@@ -7568,34 +7670,34 @@
       <c r="A26" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B26" s="25">
+      <c r="B26" s="24">
         <v>0.69899999999999995</v>
       </c>
-      <c r="C26" s="25">
+      <c r="C26" s="24">
         <v>0.623</v>
       </c>
-      <c r="D26" s="25">
+      <c r="D26" s="24">
         <v>0.29499999999999998</v>
       </c>
-      <c r="E26" s="25">
+      <c r="E26" s="24">
         <v>0.35799999999999998</v>
       </c>
-      <c r="F26" s="27">
+      <c r="F26" s="26">
         <v>0.44400000000000001</v>
       </c>
-      <c r="G26" s="27">
+      <c r="G26" s="26">
         <v>0.26400000000000001</v>
       </c>
-      <c r="H26" s="27">
+      <c r="H26" s="26">
         <v>0.317</v>
       </c>
-      <c r="I26" s="29">
+      <c r="I26" s="28">
         <v>0.51700000000000002</v>
       </c>
-      <c r="J26" s="29">
+      <c r="J26" s="28">
         <v>0.20899999999999999</v>
       </c>
-      <c r="K26" s="29">
+      <c r="K26" s="28">
         <v>0.27100000000000002</v>
       </c>
       <c r="L26" s="21">
@@ -7609,34 +7711,34 @@
       <c r="A27" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B27" s="25">
+      <c r="B27" s="24">
         <v>0.48899999999999999</v>
       </c>
-      <c r="C27" s="25">
+      <c r="C27" s="24">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="D27" s="25">
+      <c r="D27" s="24">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="E27" s="25">
+      <c r="E27" s="24">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="F27" s="27">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="G27" s="27">
+      <c r="F27" s="26">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="G27" s="26">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="H27" s="27">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="I27" s="29">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="J27" s="29">
+      <c r="H27" s="26">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="I27" s="28">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="J27" s="28">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="K27" s="29">
+      <c r="K27" s="28">
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="L27" s="21">
@@ -7650,34 +7752,34 @@
       <c r="A28" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B28" s="25">
+      <c r="B28" s="24">
         <v>0.25800000000000001</v>
       </c>
-      <c r="C28" s="25">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="D28" s="25">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="E28" s="25">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="F28" s="27">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="G28" s="27">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="H28" s="27">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="I28" s="29">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="J28" s="29">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="K28" s="29">
+      <c r="C28" s="24">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="D28" s="24">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="E28" s="24">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="F28" s="26">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="G28" s="26">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="H28" s="26">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="I28" s="28">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="J28" s="28">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="K28" s="28">
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="L28" s="21">
@@ -7730,34 +7832,34 @@
       <c r="A30" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B30" s="27">
+      <c r="B30" s="26">
         <v>2.133</v>
       </c>
-      <c r="C30" s="27">
+      <c r="C30" s="26">
         <v>0.53700000000000003</v>
       </c>
-      <c r="D30" s="27">
+      <c r="D30" s="26">
         <v>0.26500000000000001</v>
       </c>
-      <c r="E30" s="27">
+      <c r="E30" s="26">
         <v>0.34300000000000003</v>
       </c>
-      <c r="F30" s="29">
+      <c r="F30" s="28">
         <v>0.434</v>
       </c>
-      <c r="G30" s="29">
+      <c r="G30" s="28">
         <v>0.20100000000000001</v>
       </c>
-      <c r="H30" s="29">
+      <c r="H30" s="28">
         <v>0.29499999999999998</v>
       </c>
-      <c r="I30" s="30">
+      <c r="I30" s="29">
         <v>0.39</v>
       </c>
-      <c r="J30" s="30">
+      <c r="J30" s="29">
         <v>0.17499999999999999</v>
       </c>
-      <c r="K30" s="30">
+      <c r="K30" s="29">
         <v>0.36799999999999999</v>
       </c>
       <c r="L30" s="21">
@@ -7771,34 +7873,34 @@
       <c r="A31" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B31" s="27">
+      <c r="B31" s="26">
         <v>1.7709999999999999</v>
       </c>
-      <c r="C31" s="27">
+      <c r="C31" s="26">
         <v>0.55600000000000005</v>
       </c>
-      <c r="D31" s="27">
+      <c r="D31" s="26">
         <v>0.25900000000000001</v>
       </c>
-      <c r="E31" s="27">
+      <c r="E31" s="26">
         <v>0.34200000000000003</v>
       </c>
-      <c r="F31" s="29">
+      <c r="F31" s="28">
         <v>0.441</v>
       </c>
-      <c r="G31" s="29">
+      <c r="G31" s="28">
         <v>0.188</v>
       </c>
-      <c r="H31" s="29">
+      <c r="H31" s="28">
         <v>0.28899999999999998</v>
       </c>
-      <c r="I31" s="30">
+      <c r="I31" s="29">
         <v>0.39100000000000001</v>
       </c>
-      <c r="J31" s="30">
+      <c r="J31" s="29">
         <v>0.183</v>
       </c>
-      <c r="K31" s="30">
+      <c r="K31" s="29">
         <v>0.29499999999999998</v>
       </c>
       <c r="L31" s="21">
@@ -7812,34 +7914,34 @@
       <c r="A32" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B32" s="27">
+      <c r="B32" s="26">
         <v>1.454</v>
       </c>
-      <c r="C32" s="27">
+      <c r="C32" s="26">
         <v>0.66</v>
       </c>
-      <c r="D32" s="27">
+      <c r="D32" s="26">
         <v>0.29599999999999999</v>
       </c>
-      <c r="E32" s="27">
+      <c r="E32" s="26">
         <v>0.35299999999999998</v>
       </c>
-      <c r="F32" s="29">
+      <c r="F32" s="28">
         <v>0.48499999999999999</v>
       </c>
-      <c r="G32" s="29">
+      <c r="G32" s="28">
         <v>0.26100000000000001</v>
       </c>
-      <c r="H32" s="29">
+      <c r="H32" s="28">
         <v>0.31</v>
       </c>
-      <c r="I32" s="30">
+      <c r="I32" s="29">
         <v>0.43</v>
       </c>
-      <c r="J32" s="30">
+      <c r="J32" s="29">
         <v>0.217</v>
       </c>
-      <c r="K32" s="30">
+      <c r="K32" s="29">
         <v>0.28499999999999998</v>
       </c>
       <c r="L32" s="21">
@@ -7853,34 +7955,34 @@
       <c r="A33" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B33" s="27">
+      <c r="B33" s="26">
         <v>1.0840000000000001</v>
       </c>
-      <c r="C33" s="27">
+      <c r="C33" s="26">
         <v>0.61699999999999999</v>
       </c>
-      <c r="D33" s="27">
+      <c r="D33" s="26">
         <v>0.29799999999999999</v>
       </c>
-      <c r="E33" s="27">
+      <c r="E33" s="26">
         <v>0.376</v>
       </c>
-      <c r="F33" s="29">
+      <c r="F33" s="28">
         <v>0.46300000000000002</v>
       </c>
-      <c r="G33" s="29">
+      <c r="G33" s="28">
         <v>0.27100000000000002</v>
       </c>
-      <c r="H33" s="29">
+      <c r="H33" s="28">
         <v>0.30099999999999999</v>
       </c>
-      <c r="I33" s="30">
+      <c r="I33" s="29">
         <v>0.40400000000000003</v>
       </c>
-      <c r="J33" s="30">
+      <c r="J33" s="29">
         <v>0.21199999999999999</v>
       </c>
-      <c r="K33" s="30">
+      <c r="K33" s="29">
         <v>0.27100000000000002</v>
       </c>
       <c r="L33" s="21">
@@ -7894,34 +7996,34 @@
       <c r="A34" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B34" s="27">
+      <c r="B34" s="26">
         <v>0.89600000000000002</v>
       </c>
-      <c r="C34" s="27">
+      <c r="C34" s="26">
         <v>0.65</v>
       </c>
-      <c r="D34" s="27">
+      <c r="D34" s="26">
         <v>0.34899999999999998</v>
       </c>
-      <c r="E34" s="27">
+      <c r="E34" s="26">
         <v>0.38</v>
       </c>
-      <c r="F34" s="29">
+      <c r="F34" s="28">
         <v>0.50800000000000001</v>
       </c>
-      <c r="G34" s="29">
+      <c r="G34" s="28">
         <v>0.28199999999999997</v>
       </c>
-      <c r="H34" s="29">
+      <c r="H34" s="28">
         <v>0.317</v>
       </c>
-      <c r="I34" s="30">
+      <c r="I34" s="29">
         <v>0.46600000000000003</v>
       </c>
-      <c r="J34" s="30">
+      <c r="J34" s="29">
         <v>0.23899999999999999</v>
       </c>
-      <c r="K34" s="30">
+      <c r="K34" s="29">
         <v>0.29099999999999998</v>
       </c>
       <c r="L34" s="21">
@@ -7935,34 +8037,34 @@
       <c r="A35" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B35" s="27">
+      <c r="B35" s="26">
         <v>0.72599999999999998</v>
       </c>
-      <c r="C35" s="27">
+      <c r="C35" s="26">
         <v>0.64600000000000002</v>
       </c>
-      <c r="D35" s="27">
+      <c r="D35" s="26">
         <v>0.309</v>
       </c>
-      <c r="E35" s="27">
+      <c r="E35" s="26">
         <v>0.379</v>
       </c>
-      <c r="F35" s="29">
+      <c r="F35" s="28">
         <v>0.46</v>
       </c>
-      <c r="G35" s="29">
+      <c r="G35" s="28">
         <v>0.27</v>
       </c>
-      <c r="H35" s="29">
+      <c r="H35" s="28">
         <v>0.32600000000000001</v>
       </c>
-      <c r="I35" s="30">
+      <c r="I35" s="29">
         <v>0.53</v>
       </c>
-      <c r="J35" s="30">
+      <c r="J35" s="29">
         <v>0.21199999999999999</v>
       </c>
-      <c r="K35" s="30">
+      <c r="K35" s="29">
         <v>0.27600000000000002</v>
       </c>
       <c r="L35" s="21">
@@ -7976,34 +8078,34 @@
       <c r="A36" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B36" s="27">
+      <c r="B36" s="26">
         <v>0.51100000000000001</v>
       </c>
-      <c r="C36" s="27">
+      <c r="C36" s="26">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="D36" s="27">
+      <c r="D36" s="26">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="E36" s="27">
+      <c r="E36" s="26">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="F36" s="29">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="G36" s="29">
+      <c r="F36" s="28">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="G36" s="28">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="H36" s="29">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="I36" s="30">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="J36" s="30">
+      <c r="H36" s="28">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="I36" s="29">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="J36" s="29">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="K36" s="30">
+      <c r="K36" s="29">
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="L36" s="21">
@@ -8017,34 +8119,34 @@
       <c r="A37" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B37" s="27">
+      <c r="B37" s="26">
         <v>0.26600000000000001</v>
       </c>
-      <c r="C37" s="27">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="D37" s="27">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="E37" s="27">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="F37" s="29">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="G37" s="29">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="H37" s="29">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="I37" s="30">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="J37" s="30">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="K37" s="30">
+      <c r="C37" s="26">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="D37" s="26">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="E37" s="26">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="F37" s="28">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="G37" s="28">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="H37" s="28">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="I37" s="29">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="J37" s="29">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="K37" s="29">
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="L37" s="21">
@@ -8055,32 +8157,32 @@
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B39" s="34" t="s">
+      <c r="B39" s="33" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B40" s="36" t="s">
+      <c r="B40" s="35" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B41" s="26" t="s">
+      <c r="B41" s="25" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B42" s="28" t="s">
+      <c r="B42" s="27" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B43" s="32" t="s">
+      <c r="B43" s="31" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B44" s="31" t="s">
+      <c r="B44" s="30" t="s">
         <v>142</v>
       </c>
     </row>
@@ -8097,15 +8199,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D779E97-2831-5F42-8D9B-B761EF868AA2}">
-  <dimension ref="A1:X15"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" zoomScale="164" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B1" s="1">
         <v>1</v>
       </c>
@@ -8137,7 +8239,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>98</v>
       </c>
@@ -8172,7 +8274,7 @@
         <v>0.33200000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>99</v>
       </c>
@@ -8207,7 +8309,7 @@
         <v>0.27600000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>100</v>
       </c>
@@ -8241,35 +8343,8 @@
       <c r="K4" s="6">
         <v>0.26800000000000002</v>
       </c>
-      <c r="P4" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>151</v>
-      </c>
-      <c r="R4" t="s">
-        <v>151</v>
-      </c>
-      <c r="S4" t="s">
-        <v>152</v>
-      </c>
-      <c r="T4" t="s">
-        <v>152</v>
-      </c>
-      <c r="U4" t="s">
-        <v>152</v>
-      </c>
-      <c r="V4" t="s">
-        <v>153</v>
-      </c>
-      <c r="W4" t="s">
-        <v>153</v>
-      </c>
-      <c r="X4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>101</v>
       </c>
@@ -8303,35 +8378,8 @@
       <c r="K5" s="6">
         <v>0.254</v>
       </c>
-      <c r="P5" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>149</v>
-      </c>
-      <c r="R5" t="s">
-        <v>150</v>
-      </c>
-      <c r="S5" t="s">
-        <v>148</v>
-      </c>
-      <c r="T5" t="s">
-        <v>149</v>
-      </c>
-      <c r="U5" t="s">
-        <v>150</v>
-      </c>
-      <c r="V5" t="s">
-        <v>148</v>
-      </c>
-      <c r="W5" t="s">
-        <v>149</v>
-      </c>
-      <c r="X5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>102</v>
       </c>
@@ -8365,41 +8413,8 @@
       <c r="K6" s="6">
         <v>0.27300000000000002</v>
       </c>
-      <c r="N6" s="11">
-        <v>2.0960000000000001</v>
-      </c>
-      <c r="O6" t="s">
-        <v>145</v>
-      </c>
-      <c r="P6">
-        <v>0.51449999999999996</v>
-      </c>
-      <c r="Q6">
-        <v>0.252</v>
-      </c>
-      <c r="R6">
-        <v>0.32450000000000001</v>
-      </c>
-      <c r="S6">
-        <v>0.40200000000000002</v>
-      </c>
-      <c r="T6">
-        <v>0.188</v>
-      </c>
-      <c r="U6">
-        <v>0.27300000000000002</v>
-      </c>
-      <c r="V6">
-        <v>0.35599999999999998</v>
-      </c>
-      <c r="W6">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="X6">
-        <v>0.30400000000000005</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>103</v>
       </c>
@@ -8433,41 +8448,8 @@
       <c r="K7" s="6">
         <v>0.25800000000000001</v>
       </c>
-      <c r="N7" s="12">
-        <v>1.7450000000000001</v>
-      </c>
-      <c r="O7" t="s">
-        <v>146</v>
-      </c>
-      <c r="P7">
-        <v>0.59899999999999998</v>
-      </c>
-      <c r="Q7">
-        <v>0.28499999999999998</v>
-      </c>
-      <c r="R7">
-        <v>0.33950000000000002</v>
-      </c>
-      <c r="S7">
-        <v>0.435</v>
-      </c>
-      <c r="T7">
-        <v>0.252</v>
-      </c>
-      <c r="U7">
-        <v>0.28699999999999998</v>
-      </c>
-      <c r="V7">
-        <v>0.38250000000000001</v>
-      </c>
-      <c r="W7">
-        <v>0.20599999999999999</v>
-      </c>
-      <c r="X7">
-        <v>0.26100000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>104</v>
       </c>
@@ -8501,41 +8483,8 @@
       <c r="K8" s="21">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="N8" s="15">
-        <v>1.4239999999999999</v>
-      </c>
-      <c r="O8" t="s">
-        <v>147</v>
-      </c>
-      <c r="P8">
-        <v>0.61599999999999999</v>
-      </c>
-      <c r="Q8">
-        <v>0.3125</v>
-      </c>
-      <c r="R8">
-        <v>0.35699999999999998</v>
-      </c>
-      <c r="S8">
-        <v>0.44350000000000001</v>
-      </c>
-      <c r="T8">
-        <v>0.26200000000000001</v>
-      </c>
-      <c r="U8">
-        <v>0.30049999999999999</v>
-      </c>
-      <c r="V8">
-        <v>0.45250000000000001</v>
-      </c>
-      <c r="W8">
-        <v>0.215</v>
-      </c>
-      <c r="X8">
-        <v>0.26550000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>105</v>
       </c>
@@ -8569,175 +8518,639 @@
       <c r="K9" s="21">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="N9" s="14">
-        <v>1.0569999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="N10" s="5">
-        <v>0.86899999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="N11" s="8">
-        <v>0.69899999999999995</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="C12" s="37" t="s">
+    </row>
+    <row r="11" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C12" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="D12" s="38" t="s">
+      <c r="D12" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="E12" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="E12" s="39" t="s">
+      <c r="F12" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="G12" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="F12" s="37" t="s">
+      <c r="H12" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="I12" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="G12" s="38" t="s">
+      <c r="J12" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="K12" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="H12" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="I12" s="37" t="s">
-        <v>148</v>
-      </c>
-      <c r="J12" s="38" t="s">
-        <v>149</v>
-      </c>
-      <c r="K12" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="N12" s="10">
-        <v>0.48899999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B13" s="24" t="s">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B13" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="C13" s="24">
-        <f>AVERAGE(C2:C3)</f>
+      <c r="C13" s="23">
+        <f t="shared" ref="C13:J13" si="0">AVERAGE(C2:C3)</f>
         <v>0.51449999999999996</v>
       </c>
-      <c r="D13" s="24">
-        <f>AVERAGE(D2:D3)</f>
+      <c r="D13" s="23">
+        <f t="shared" si="0"/>
         <v>0.252</v>
       </c>
-      <c r="E13" s="24">
-        <f t="shared" ref="E13:K13" si="0">AVERAGE(E2:E3)</f>
+      <c r="E13" s="23">
+        <f>AVERAGE(E2:E3)</f>
         <v>0.32450000000000001</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F13" s="23">
         <f t="shared" si="0"/>
         <v>0.40200000000000002</v>
       </c>
-      <c r="G13" s="24">
+      <c r="G13" s="23">
         <f t="shared" si="0"/>
         <v>0.188</v>
       </c>
-      <c r="H13" s="24">
+      <c r="H13" s="23">
         <f t="shared" si="0"/>
         <v>0.27300000000000002</v>
       </c>
-      <c r="I13" s="24">
+      <c r="I13" s="23">
         <f t="shared" si="0"/>
         <v>0.35599999999999998</v>
       </c>
-      <c r="J13" s="24">
+      <c r="J13" s="23">
         <f t="shared" si="0"/>
         <v>0.17499999999999999</v>
       </c>
-      <c r="K13" s="24">
-        <f t="shared" si="0"/>
-        <v>0.30400000000000005</v>
-      </c>
-      <c r="N13" s="6">
-        <v>0.25800000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B14" s="24" t="s">
+      <c r="K13" s="23">
+        <v>0.27600000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B14" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="C14" s="24">
-        <f>AVERAGE(C4:C5)</f>
+      <c r="C14" s="23">
+        <f t="shared" ref="C14:K14" si="1">AVERAGE(C4:C5)</f>
         <v>0.59899999999999998</v>
       </c>
-      <c r="D14" s="24">
-        <f t="shared" ref="D14:K14" si="1">AVERAGE(D4:D5)</f>
+      <c r="D14" s="23">
+        <f t="shared" si="1"/>
         <v>0.28499999999999998</v>
       </c>
-      <c r="E14" s="24">
-        <f>AVERAGE(E4:E5)</f>
+      <c r="E14" s="23">
+        <f t="shared" si="1"/>
         <v>0.33950000000000002</v>
       </c>
-      <c r="F14" s="24">
+      <c r="F14" s="23">
         <f t="shared" si="1"/>
         <v>0.435</v>
       </c>
-      <c r="G14" s="24">
+      <c r="G14" s="23">
         <f t="shared" si="1"/>
         <v>0.252</v>
       </c>
-      <c r="H14" s="24">
+      <c r="H14" s="23">
         <f t="shared" si="1"/>
         <v>0.28699999999999998</v>
       </c>
-      <c r="I14" s="24">
+      <c r="I14" s="23">
         <f t="shared" si="1"/>
         <v>0.38250000000000001</v>
       </c>
-      <c r="J14" s="24">
+      <c r="J14" s="23">
         <f t="shared" si="1"/>
         <v>0.20599999999999999</v>
       </c>
-      <c r="K14" s="24">
-        <f t="shared" si="1"/>
+      <c r="K14" s="23">
+        <f>AVERAGE(K4:K5)</f>
         <v>0.26100000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B15" s="24" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B15" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="C15" s="24">
-        <f>AVERAGE(C6:C7)</f>
+      <c r="C15" s="23">
+        <f t="shared" ref="C15:K15" si="2">AVERAGE(C6:C7)</f>
         <v>0.61599999999999999</v>
       </c>
-      <c r="D15" s="24">
-        <f t="shared" ref="D15:K15" si="2">AVERAGE(D6:D7)</f>
+      <c r="D15" s="23">
+        <f t="shared" si="2"/>
         <v>0.3125</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="23">
         <f t="shared" si="2"/>
         <v>0.35699999999999998</v>
       </c>
-      <c r="F15" s="24">
+      <c r="F15" s="23">
         <f t="shared" si="2"/>
         <v>0.44350000000000001</v>
       </c>
-      <c r="G15" s="24">
+      <c r="G15" s="23">
         <f t="shared" si="2"/>
         <v>0.26200000000000001</v>
       </c>
-      <c r="H15" s="24">
+      <c r="H15" s="23">
         <f t="shared" si="2"/>
         <v>0.30049999999999999</v>
       </c>
-      <c r="I15" s="24">
+      <c r="I15" s="23">
         <f t="shared" si="2"/>
         <v>0.45250000000000001</v>
       </c>
-      <c r="J15" s="24">
+      <c r="J15" s="23">
         <f t="shared" si="2"/>
         <v>0.215</v>
       </c>
-      <c r="K15" s="24">
+      <c r="K15" s="23">
         <f t="shared" si="2"/>
+        <v>0.26550000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{872736F9-51BE-444C-A362-183514BD30A0}">
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" zoomScale="125" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="11">
+        <v>2.0960000000000001</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="42"/>
+      <c r="D3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G3">
+        <v>0.51449999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="12">
+        <v>1.7450000000000001</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" s="42"/>
+      <c r="D4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F4" t="s">
+        <v>150</v>
+      </c>
+      <c r="G4">
+        <v>0.252</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="15">
+        <v>1.4239999999999999</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" s="42"/>
+      <c r="D5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G5">
+        <v>0.32450000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="14">
+        <v>1.0569999999999999</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6" s="42"/>
+      <c r="D6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E6" t="s">
+        <v>145</v>
+      </c>
+      <c r="F6" t="s">
+        <v>148</v>
+      </c>
+      <c r="G6">
+        <v>0.40200000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7" s="42"/>
+      <c r="D7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G7">
+        <v>0.188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="8">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="C8" s="42"/>
+      <c r="D8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F8" t="s">
+        <v>149</v>
+      </c>
+      <c r="G8">
+        <v>0.27300000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="10">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="C9" s="42"/>
+      <c r="D9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G9">
+        <v>0.35599999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="C10" s="42"/>
+      <c r="D10" t="s">
+        <v>153</v>
+      </c>
+      <c r="E10" t="s">
+        <v>145</v>
+      </c>
+      <c r="F10" t="s">
+        <v>150</v>
+      </c>
+      <c r="G10">
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>153</v>
+      </c>
+      <c r="E11" t="s">
+        <v>145</v>
+      </c>
+      <c r="F11" t="s">
+        <v>149</v>
+      </c>
+      <c r="G11">
+        <v>0.27600000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>151</v>
+      </c>
+      <c r="E14" t="s">
+        <v>146</v>
+      </c>
+      <c r="F14" t="s">
+        <v>148</v>
+      </c>
+      <c r="G14">
+        <v>0.59899999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>151</v>
+      </c>
+      <c r="E15" t="s">
+        <v>146</v>
+      </c>
+      <c r="F15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G15">
+        <v>0.28499999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>151</v>
+      </c>
+      <c r="E16" t="s">
+        <v>146</v>
+      </c>
+      <c r="F16" t="s">
+        <v>149</v>
+      </c>
+      <c r="G16">
+        <v>0.33950000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>152</v>
+      </c>
+      <c r="E17" t="s">
+        <v>146</v>
+      </c>
+      <c r="F17" t="s">
+        <v>148</v>
+      </c>
+      <c r="G17">
+        <v>0.435</v>
+      </c>
+    </row>
+    <row r="18" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>152</v>
+      </c>
+      <c r="E18" t="s">
+        <v>146</v>
+      </c>
+      <c r="F18" t="s">
+        <v>150</v>
+      </c>
+      <c r="G18">
+        <v>0.252</v>
+      </c>
+    </row>
+    <row r="19" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>152</v>
+      </c>
+      <c r="E19" t="s">
+        <v>146</v>
+      </c>
+      <c r="F19" t="s">
+        <v>149</v>
+      </c>
+      <c r="G19">
+        <v>0.28699999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>153</v>
+      </c>
+      <c r="E20" t="s">
+        <v>146</v>
+      </c>
+      <c r="F20" t="s">
+        <v>148</v>
+      </c>
+      <c r="G20">
+        <v>0.38250000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>153</v>
+      </c>
+      <c r="E21" t="s">
+        <v>146</v>
+      </c>
+      <c r="F21" t="s">
+        <v>150</v>
+      </c>
+      <c r="G21">
+        <v>0.20599999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>153</v>
+      </c>
+      <c r="E22" t="s">
+        <v>146</v>
+      </c>
+      <c r="F22" t="s">
+        <v>149</v>
+      </c>
+      <c r="G22">
+        <v>0.26100000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>151</v>
+      </c>
+      <c r="E25" t="s">
+        <v>147</v>
+      </c>
+      <c r="F25" t="s">
+        <v>148</v>
+      </c>
+      <c r="G25">
+        <v>0.61599999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>151</v>
+      </c>
+      <c r="E26" t="s">
+        <v>147</v>
+      </c>
+      <c r="F26" t="s">
+        <v>150</v>
+      </c>
+      <c r="G26">
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="27" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>151</v>
+      </c>
+      <c r="E27" t="s">
+        <v>147</v>
+      </c>
+      <c r="F27" t="s">
+        <v>149</v>
+      </c>
+      <c r="G27">
+        <v>0.35699999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>152</v>
+      </c>
+      <c r="E28" t="s">
+        <v>147</v>
+      </c>
+      <c r="F28" t="s">
+        <v>148</v>
+      </c>
+      <c r="G28">
+        <v>0.44350000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>152</v>
+      </c>
+      <c r="E29" t="s">
+        <v>147</v>
+      </c>
+      <c r="F29" t="s">
+        <v>150</v>
+      </c>
+      <c r="G29">
+        <v>0.26200000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>152</v>
+      </c>
+      <c r="E30" t="s">
+        <v>147</v>
+      </c>
+      <c r="F30" t="s">
+        <v>149</v>
+      </c>
+      <c r="G30">
+        <v>0.30049999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>153</v>
+      </c>
+      <c r="E31" t="s">
+        <v>147</v>
+      </c>
+      <c r="F31" t="s">
+        <v>148</v>
+      </c>
+      <c r="G31">
+        <v>0.45250000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>153</v>
+      </c>
+      <c r="E32" t="s">
+        <v>147</v>
+      </c>
+      <c r="F32" t="s">
+        <v>150</v>
+      </c>
+      <c r="G32">
+        <v>0.215</v>
+      </c>
+    </row>
+    <row r="33" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>153</v>
+      </c>
+      <c r="E33" t="s">
+        <v>147</v>
+      </c>
+      <c r="F33" t="s">
+        <v>149</v>
+      </c>
+      <c r="G33">
         <v>0.26550000000000001</v>
       </c>
     </row>

--- a/1-data/Ebselen_plate_1.4.xlsx
+++ b/1-data/Ebselen_plate_1.4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pate212/GitHub/ebstein_mg/1-data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garc286/RStudio/ebstein_mg/1-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D7C1AF-24CE-C242-9802-9E399560BBF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC1CF082-E5DD-3947-BAFD-58E9D0E9FD0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35860" yWindow="1700" windowWidth="34560" windowHeight="19520" activeTab="5" xr2:uid="{0BFC42FB-AF9A-6C4B-8713-04DD03B7C22F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25140" windowHeight="17500" firstSheet="1" activeTab="7" xr2:uid="{0BFC42FB-AF9A-6C4B-8713-04DD03B7C22F}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="4" r:id="rId1"/>
@@ -19,8 +19,13 @@
     <sheet name="all plates" sheetId="3" r:id="rId4"/>
     <sheet name="post_stop soln scale" sheetId="6" r:id="rId5"/>
     <sheet name="30min post stop " sheetId="5" r:id="rId6"/>
-    <sheet name="30min post stop_kfp" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet3" sheetId="9" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId8"/>
+    <sheet name="30min post stop_kfp" sheetId="7" r:id="rId9"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId10"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="176">
   <si>
     <t>Time</t>
   </si>
@@ -542,9 +547,6 @@
     <t>time_for_urea</t>
   </si>
   <si>
-    <t>inhibitor_concentration</t>
-  </si>
-  <si>
     <t>cell_concentration</t>
   </si>
   <si>
@@ -552,13 +554,34 @@
   </si>
   <si>
     <t>skip</t>
+  </si>
+  <si>
+    <t>Inhibitor_concentration</t>
+  </si>
+  <si>
+    <t>NH4 [uM]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Absorbance </t>
+  </si>
+  <si>
+    <t>OD600 growth 1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intercept </t>
+  </si>
+  <si>
+    <t xml:space="preserve">organized </t>
+  </si>
+  <si>
+    <t xml:space="preserve">just averages </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -601,8 +624,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="21">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -723,6 +751,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -833,7 +867,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -946,6 +980,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -961,6 +999,2793 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Absorbance Standards </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Absorbance </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$4:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.0960000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7450000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4239999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0569999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.86899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.69899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.48899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.25800000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F86F-294E-A0E6-851F544A803A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1636391648"/>
+        <c:axId val="1636173728"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1636391648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1"/>
+                  <a:t>Urea Conc uM</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.46068947543528893"/>
+              <c:y val="0.94740476190476186"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1636173728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1636173728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1"/>
+                  <a:t>Absorbance</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
+                  <a:t> 760 nm</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="6.91908524789734E-3"/>
+              <c:y val="0.33902959342030525"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1636391648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>1hr Urea</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> incubation at OD600 of 0.7</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-8F0D-3648-8CBA-30DEEC7FE9CE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-8F0D-3648-8CBA-30DEEC7FE9CE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-8F0D-3648-8CBA-30DEEC7FE9CE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$56:$H$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$57:$H$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.32450000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.33950000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.35699999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8F0D-3648-8CBA-30DEEC7FE9CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1732146479"/>
+        <c:axId val="1236370799"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1732146479"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Conc inhibitior (um)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1236370799"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1236370799"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>intensity at (760um)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.3888888888888888E-2"/>
+              <c:y val="0.29713363954505689"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1732146479"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF11CC23-AB14-9A48-A6B4-3C6915BAF236}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>362856</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>190498</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>711199</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>50799</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C840DFCB-7405-F196-FBDB-9F666F627B1D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.32461</cdr:x>
+      <cdr:y>0.14839</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.42201</cdr:x>
+      <cdr:y>0.22687</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55CE5CAC-9CF2-216A-1A5B-ED107E570ADB}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1737365" y="669046"/>
+          <a:ext cx="521324" cy="353875"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="700"/>
+            <a:t>31.25um</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="700" baseline="0"/>
+            <a:t> ebselen</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="700"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.51085</cdr:x>
+      <cdr:y>0.40046</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.60826</cdr:x>
+      <cdr:y>0.47894</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3A496E8-9650-9A61-7758-879298FCD83D}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2734187" y="1805585"/>
+          <a:ext cx="521324" cy="353875"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="700"/>
+            <a:t>62.5um</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="700" baseline="0"/>
+            <a:t> ebselen</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="700"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.86619</cdr:x>
+      <cdr:y>0.60567</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.96368</cdr:x>
+      <cdr:y>0.68614</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3A496E8-9650-9A61-7758-879298FCD83D}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4631871" y="2663371"/>
+          <a:ext cx="521324" cy="353875"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="700"/>
+            <a:t>125um</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="700" baseline="0"/>
+            <a:t> ebselen</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="700"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="plate 1"/>
+      <sheetName val="plate 2"/>
+      <sheetName val="plate 3"/>
+      <sheetName val="plate 4"/>
+      <sheetName val="plate 5"/>
+      <sheetName val="plate 6"/>
+      <sheetName val="plate 7 "/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="58">
+          <cell r="D58" t="str">
+            <v xml:space="preserve">Absorbance </v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="C59">
+            <v>500</v>
+          </cell>
+          <cell r="D59">
+            <v>0.98199999999999998</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="C60">
+            <v>400</v>
+          </cell>
+          <cell r="D60">
+            <v>0.92900000000000005</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="C61">
+            <v>300</v>
+          </cell>
+          <cell r="D61">
+            <v>0.871</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="C62">
+            <v>200</v>
+          </cell>
+          <cell r="D62">
+            <v>0.77100000000000002</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="C63">
+            <v>150</v>
+          </cell>
+          <cell r="D63">
+            <v>0.52</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="C64">
+            <v>100</v>
+          </cell>
+          <cell r="D64">
+            <v>0.55800000000000005</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="C65">
+            <v>50</v>
+          </cell>
+          <cell r="D65">
+            <v>0.35299999999999998</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="C66">
+            <v>0</v>
+          </cell>
+          <cell r="D66">
+            <v>0.27500000000000002</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="H81">
+            <v>3.0353473167552564E-2</v>
+          </cell>
+          <cell r="I81">
+            <v>7.5624070242218622E-2</v>
+          </cell>
+          <cell r="J81">
+            <v>9.9931643303477077E-2</v>
+          </cell>
+          <cell r="K81">
+            <v>9.222978549976836E-2</v>
+          </cell>
+          <cell r="L81">
+            <v>0.11400146197892937</v>
+          </cell>
+          <cell r="M81">
+            <v>0.17246158992656879</v>
+          </cell>
+          <cell r="N81">
+            <v>6.3814836310479781E-2</v>
+          </cell>
+          <cell r="O81">
+            <v>9.9500418759587719E-2</v>
+          </cell>
+          <cell r="P81">
+            <v>0.10650352106855429</v>
+          </cell>
+          <cell r="Q81">
+            <v>7.8249600637958508E-2</v>
+          </cell>
+          <cell r="R81">
+            <v>0.11883742395951426</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="H83">
+            <v>1000</v>
+          </cell>
+          <cell r="I83">
+            <v>500</v>
+          </cell>
+          <cell r="J83">
+            <v>250</v>
+          </cell>
+          <cell r="K83">
+            <v>125</v>
+          </cell>
+          <cell r="L83">
+            <v>62.5</v>
+          </cell>
+          <cell r="M83">
+            <v>31.25</v>
+          </cell>
+          <cell r="N83">
+            <v>15.625</v>
+          </cell>
+          <cell r="O83">
+            <v>7.8125</v>
+          </cell>
+          <cell r="P83">
+            <v>3.90625</v>
+          </cell>
+          <cell r="Q83">
+            <v>1.953125</v>
+          </cell>
+          <cell r="R83">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="H84">
+            <v>0.27566666666666667</v>
+          </cell>
+          <cell r="I84">
+            <v>0.25899999999999995</v>
+          </cell>
+          <cell r="J84">
+            <v>0.34233333333333332</v>
+          </cell>
+          <cell r="K84">
+            <v>0.34933333333333333</v>
+          </cell>
+          <cell r="L84">
+            <v>0.36933333333333335</v>
+          </cell>
+          <cell r="M84">
+            <v>1.9339999999999999</v>
+          </cell>
+          <cell r="N84">
+            <v>1.8536666666666666</v>
+          </cell>
+          <cell r="O84">
+            <v>1.8063333333333331</v>
+          </cell>
+          <cell r="P84">
+            <v>1.843</v>
+          </cell>
+          <cell r="Q84">
+            <v>1.851</v>
+          </cell>
+          <cell r="R84">
+            <v>1.7646666666666666</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5143,10 +7968,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A700443-F690-E54E-A2DD-5B9DA11A9D07}">
-  <dimension ref="A1:M37"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection sqref="A1:M1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5176,285 +8001,273 @@
       <c r="M1" s="43"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="1">
+      <c r="C2" s="23">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="E2" s="23">
+        <v>0.7</v>
+      </c>
+      <c r="F2" s="23">
+        <v>1</v>
+      </c>
+      <c r="G2" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="H2" s="23">
+        <v>0.7</v>
+      </c>
+      <c r="I2" s="23">
+        <v>1</v>
+      </c>
+      <c r="J2" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="K2" s="23">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
         <v>2</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D3" s="1">
         <v>3</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E3" s="1">
         <v>4</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F3" s="1">
         <v>5</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G3" s="1">
         <v>6</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H3" s="1">
         <v>7</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I3" s="1">
         <v>8</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J3" s="1">
         <v>9</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K3" s="1">
         <v>10</v>
       </c>
-      <c r="L2" s="20">
+      <c r="L3" s="20">
         <v>11</v>
       </c>
-      <c r="M2" s="20">
+      <c r="M3" s="20">
         <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" s="5">
-        <v>0.89300000000000002</v>
-      </c>
-      <c r="C3" s="6">
-        <v>0.30299999999999999</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0.19600000000000001</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0.223</v>
-      </c>
-      <c r="F3" s="6">
-        <v>0.373</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0.186</v>
-      </c>
-      <c r="H3" s="6">
-        <v>0.25900000000000001</v>
-      </c>
-      <c r="I3" s="6">
-        <v>0.35499999999999998</v>
-      </c>
-      <c r="J3" s="7">
-        <v>0.17100000000000001</v>
-      </c>
-      <c r="K3" s="6">
-        <v>0.33200000000000002</v>
-      </c>
-      <c r="L3" s="21">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="M3" s="21">
-        <v>0.10100000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B4" s="8">
-        <v>0.77700000000000002</v>
+        <v>98</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.89300000000000002</v>
       </c>
       <c r="C4" s="6">
-        <v>0.308</v>
+        <v>0.30299999999999999</v>
       </c>
       <c r="D4" s="7">
-        <v>0.192</v>
+        <v>0.19600000000000001</v>
       </c>
       <c r="E4" s="7">
-        <v>0.22500000000000001</v>
+        <v>0.223</v>
       </c>
       <c r="F4" s="6">
-        <v>0.372</v>
+        <v>0.373</v>
       </c>
       <c r="G4" s="7">
-        <v>0.18</v>
+        <v>0.186</v>
       </c>
       <c r="H4" s="6">
-        <v>0.255</v>
+        <v>0.25900000000000001</v>
       </c>
       <c r="I4" s="6">
-        <v>0.35699999999999998</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="J4" s="7">
-        <v>0.17899999999999999</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="K4" s="6">
-        <v>0.27600000000000002</v>
+        <v>0.33200000000000002</v>
       </c>
       <c r="L4" s="21">
-        <v>8.6999999999999994E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="M4" s="21">
-        <v>8.6999999999999994E-2</v>
+        <v>0.10100000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B5" s="9">
-        <v>0.57399999999999995</v>
+        <v>99</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0.77700000000000002</v>
       </c>
       <c r="C5" s="6">
-        <v>0.34899999999999998</v>
+        <v>0.308</v>
       </c>
       <c r="D5" s="7">
-        <v>0.218</v>
+        <v>0.192</v>
       </c>
       <c r="E5" s="7">
-        <v>0.22600000000000001</v>
-      </c>
-      <c r="F5" s="10">
-        <v>0.41899999999999998</v>
-      </c>
-      <c r="G5" s="6">
-        <v>0.23799999999999999</v>
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.372</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0.18</v>
       </c>
       <c r="H5" s="6">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="I5" s="10">
-        <v>0.39200000000000002</v>
+        <v>0.255</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0.35699999999999998</v>
       </c>
       <c r="J5" s="7">
-        <v>0.20799999999999999</v>
+        <v>0.17899999999999999</v>
       </c>
       <c r="K5" s="6">
-        <v>0.26800000000000002</v>
+        <v>0.27600000000000002</v>
       </c>
       <c r="L5" s="21">
-        <v>8.5000000000000006E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="M5" s="21">
-        <v>8.5000000000000006E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B6" s="10">
-        <v>0.45100000000000001</v>
+        <v>100</v>
+      </c>
+      <c r="B6" s="9">
+        <v>0.57399999999999995</v>
       </c>
       <c r="C6" s="6">
-        <v>0.33400000000000002</v>
+        <v>0.34899999999999998</v>
       </c>
       <c r="D6" s="7">
-        <v>0.22</v>
+        <v>0.218</v>
       </c>
       <c r="E6" s="7">
-        <v>0.22800000000000001</v>
+        <v>0.22600000000000001</v>
       </c>
       <c r="F6" s="10">
-        <v>0.38700000000000001</v>
+        <v>0.41899999999999998</v>
       </c>
       <c r="G6" s="6">
-        <v>0.24299999999999999</v>
+        <v>0.23799999999999999</v>
       </c>
       <c r="H6" s="6">
-        <v>0.26900000000000002</v>
-      </c>
-      <c r="I6" s="6">
-        <v>0.373</v>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="I6" s="10">
+        <v>0.39200000000000002</v>
       </c>
       <c r="J6" s="7">
-        <v>0.20399999999999999</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="K6" s="6">
-        <v>0.254</v>
+        <v>0.26800000000000002</v>
       </c>
       <c r="L6" s="21">
-        <v>0.09</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="M6" s="21">
-        <v>8.4000000000000005E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B7" s="10">
-        <v>0.39400000000000002</v>
+        <v>0.45100000000000001</v>
       </c>
       <c r="C7" s="6">
-        <v>0.33600000000000002</v>
-      </c>
-      <c r="D7" s="6">
-        <v>0.24099999999999999</v>
-      </c>
-      <c r="E7" s="6">
-        <v>0.23799999999999999</v>
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.22</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0.22800000000000001</v>
       </c>
       <c r="F7" s="10">
-        <v>0.42599999999999999</v>
+        <v>0.38700000000000001</v>
       </c>
       <c r="G7" s="6">
-        <v>0.255</v>
+        <v>0.24299999999999999</v>
       </c>
       <c r="H7" s="6">
-        <v>0.28100000000000003</v>
-      </c>
-      <c r="I7" s="10">
-        <v>0.42399999999999999</v>
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0.373</v>
       </c>
       <c r="J7" s="7">
-        <v>0.22600000000000001</v>
+        <v>0.20399999999999999</v>
       </c>
       <c r="K7" s="6">
-        <v>0.27300000000000002</v>
+        <v>0.254</v>
       </c>
       <c r="L7" s="21">
+        <v>0.09</v>
+      </c>
+      <c r="M7" s="21">
         <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="M7" s="21">
-        <v>8.5999999999999993E-2</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B8" s="10">
-        <v>0.38200000000000001</v>
+        <v>0.39400000000000002</v>
       </c>
       <c r="C8" s="6">
-        <v>0.37</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0.218</v>
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.24099999999999999</v>
       </c>
       <c r="E8" s="6">
-        <v>0.24</v>
+        <v>0.23799999999999999</v>
       </c>
       <c r="F8" s="10">
-        <v>0.39100000000000001</v>
+        <v>0.42599999999999999</v>
       </c>
       <c r="G8" s="6">
-        <v>0.246</v>
+        <v>0.255</v>
       </c>
       <c r="H8" s="6">
-        <v>0.28699999999999998</v>
+        <v>0.28100000000000003</v>
       </c>
       <c r="I8" s="10">
-        <v>0.48099999999999998</v>
+        <v>0.42399999999999999</v>
       </c>
       <c r="J8" s="7">
-        <v>0.20399999999999999</v>
+        <v>0.22600000000000001</v>
       </c>
       <c r="K8" s="6">
-        <v>0.25800000000000001</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="L8" s="21">
-        <v>8.5000000000000006E-2</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="M8" s="21">
         <v>8.5999999999999993E-2</v>
@@ -5462,1184 +8275,1225 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B9" s="6">
-        <v>0.26300000000000001</v>
-      </c>
-      <c r="C9" s="21">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="D9" s="21">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="E9" s="21">
-        <v>8.8999999999999996E-2</v>
-      </c>
-      <c r="F9" s="21">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="G9" s="21">
-        <v>8.6999999999999994E-2</v>
-      </c>
-      <c r="H9" s="21">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="I9" s="21">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="J9" s="21">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="K9" s="21">
-        <v>8.4000000000000005E-2</v>
+        <v>103</v>
+      </c>
+      <c r="B9" s="10">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.37</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0.218</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0.24</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0.246</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="I9" s="10">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="J9" s="7">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0.25800000000000001</v>
       </c>
       <c r="L9" s="21">
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="M9" s="21">
-        <v>8.8999999999999996E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="6">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="C10" s="21">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="D10" s="21">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="E10" s="21">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="F10" s="21">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="G10" s="21">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="H10" s="21">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="I10" s="21">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="J10" s="21">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="K10" s="21">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="L10" s="21">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="M10" s="21">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B11" s="7">
         <v>0.16800000000000001</v>
       </c>
-      <c r="C10" s="21">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="D10" s="21">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="E10" s="21">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="F10" s="21">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="G10" s="21">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="H10" s="21">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="I10" s="21">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="J10" s="21">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="K10" s="21">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="L10" s="21">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="M10" s="21">
+      <c r="C11" s="21">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="D11" s="21">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="E11" s="21">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="F11" s="21">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="G11" s="21">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="H11" s="21">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="I11" s="21">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="J11" s="21">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="K11" s="21">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="L11" s="21">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="M11" s="21">
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="1">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="4"/>
+      <c r="B12" s="1">
         <v>1</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C12" s="1">
         <v>2</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D12" s="1">
         <v>3</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E12" s="1">
         <v>4</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F12" s="1">
         <v>5</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G12" s="1">
         <v>6</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H12" s="1">
         <v>7</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I12" s="1">
         <v>8</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J12" s="1">
         <v>9</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K12" s="1">
         <v>10</v>
       </c>
-      <c r="L11" s="20">
+      <c r="L12" s="20">
         <v>11</v>
       </c>
-      <c r="M11" s="20">
+      <c r="M12" s="20">
         <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B12" s="11">
-        <v>2.028</v>
-      </c>
-      <c r="C12" s="10">
-        <v>0.437</v>
-      </c>
-      <c r="D12" s="6">
-        <v>0.23699999999999999</v>
-      </c>
-      <c r="E12" s="6">
-        <v>0.29399999999999998</v>
-      </c>
-      <c r="F12" s="10">
-        <v>0.39900000000000002</v>
-      </c>
-      <c r="G12" s="7">
-        <v>0.193</v>
-      </c>
-      <c r="H12" s="6">
-        <v>0.27600000000000002</v>
-      </c>
-      <c r="I12" s="6">
-        <v>0.37</v>
-      </c>
-      <c r="J12" s="7">
-        <v>0.17199999999999999</v>
-      </c>
-      <c r="K12" s="6">
-        <v>0.34599999999999997</v>
-      </c>
-      <c r="L12" s="21">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="M12" s="21">
-        <v>0.10100000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B13" s="12">
-        <v>1.714</v>
+        <v>98</v>
+      </c>
+      <c r="B13" s="11">
+        <v>2.028</v>
       </c>
       <c r="C13" s="10">
-        <v>0.45600000000000002</v>
+        <v>0.437</v>
       </c>
       <c r="D13" s="6">
-        <v>0.23200000000000001</v>
+        <v>0.23699999999999999</v>
       </c>
       <c r="E13" s="6">
-        <v>0.28899999999999998</v>
+        <v>0.29399999999999998</v>
       </c>
       <c r="F13" s="10">
-        <v>0.40500000000000003</v>
+        <v>0.39900000000000002</v>
       </c>
       <c r="G13" s="7">
-        <v>0.183</v>
+        <v>0.193</v>
       </c>
       <c r="H13" s="6">
-        <v>0.27</v>
+        <v>0.27600000000000002</v>
       </c>
       <c r="I13" s="6">
-        <v>0.371</v>
+        <v>0.37</v>
       </c>
       <c r="J13" s="7">
-        <v>0.18</v>
+        <v>0.17199999999999999</v>
       </c>
       <c r="K13" s="6">
-        <v>0.28299999999999997</v>
+        <v>0.34599999999999997</v>
       </c>
       <c r="L13" s="21">
-        <v>8.6999999999999994E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="M13" s="21">
-        <v>8.6999999999999994E-2</v>
+        <v>0.10100000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B14" s="13">
-        <v>1.3839999999999999</v>
-      </c>
-      <c r="C14" s="9">
-        <v>0.53700000000000003</v>
+        <v>99</v>
+      </c>
+      <c r="B14" s="12">
+        <v>1.714</v>
+      </c>
+      <c r="C14" s="10">
+        <v>0.45600000000000002</v>
       </c>
       <c r="D14" s="6">
-        <v>0.26300000000000001</v>
+        <v>0.23200000000000001</v>
       </c>
       <c r="E14" s="6">
-        <v>0.29499999999999998</v>
+        <v>0.28899999999999998</v>
       </c>
       <c r="F14" s="10">
-        <v>0.45</v>
-      </c>
-      <c r="G14" s="6">
-        <v>0.247</v>
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0.183</v>
       </c>
       <c r="H14" s="6">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="I14" s="10">
-        <v>0.40899999999999997</v>
+        <v>0.27</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0.371</v>
       </c>
       <c r="J14" s="7">
-        <v>0.21099999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="K14" s="6">
-        <v>0.27500000000000002</v>
+        <v>0.28299999999999997</v>
       </c>
       <c r="L14" s="21">
-        <v>8.5000000000000006E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="M14" s="21">
-        <v>8.5000000000000006E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B15" s="14">
-        <v>1.008</v>
-      </c>
-      <c r="C15" s="10">
-        <v>0.5</v>
+        <v>100</v>
+      </c>
+      <c r="B15" s="13">
+        <v>1.3839999999999999</v>
+      </c>
+      <c r="C15" s="9">
+        <v>0.53700000000000003</v>
       </c>
       <c r="D15" s="6">
-        <v>0.26600000000000001</v>
+        <v>0.26300000000000001</v>
       </c>
       <c r="E15" s="6">
-        <v>0.30199999999999999</v>
+        <v>0.29499999999999998</v>
       </c>
       <c r="F15" s="10">
-        <v>0.42</v>
+        <v>0.45</v>
       </c>
       <c r="G15" s="6">
-        <v>0.25700000000000001</v>
+        <v>0.247</v>
       </c>
       <c r="H15" s="6">
-        <v>0.28399999999999997</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="I15" s="10">
-        <v>0.38500000000000001</v>
+        <v>0.40899999999999997</v>
       </c>
       <c r="J15" s="7">
-        <v>0.20599999999999999</v>
+        <v>0.21099999999999999</v>
       </c>
       <c r="K15" s="6">
-        <v>0.26</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="L15" s="21">
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="M15" s="21">
-        <v>8.4000000000000005E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B16" s="5">
-        <v>0.82199999999999995</v>
-      </c>
-      <c r="C16" s="9">
-        <v>0.52900000000000003</v>
+        <v>101</v>
+      </c>
+      <c r="B16" s="14">
+        <v>1.008</v>
+      </c>
+      <c r="C16" s="10">
+        <v>0.5</v>
       </c>
       <c r="D16" s="6">
-        <v>0.30299999999999999</v>
+        <v>0.26600000000000001</v>
       </c>
       <c r="E16" s="6">
-        <v>0.313</v>
+        <v>0.30199999999999999</v>
       </c>
       <c r="F16" s="10">
-        <v>0.46500000000000002</v>
+        <v>0.42</v>
       </c>
       <c r="G16" s="6">
-        <v>0.26700000000000002</v>
+        <v>0.25700000000000001</v>
       </c>
       <c r="H16" s="6">
-        <v>0.29599999999999999</v>
+        <v>0.28399999999999997</v>
       </c>
       <c r="I16" s="10">
-        <v>0.44</v>
-      </c>
-      <c r="J16" s="6">
-        <v>0.23100000000000001</v>
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="J16" s="7">
+        <v>0.20599999999999999</v>
       </c>
       <c r="K16" s="6">
-        <v>0.28000000000000003</v>
+        <v>0.26</v>
       </c>
       <c r="L16" s="21">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="M16" s="21">
         <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="M16" s="21">
-        <v>8.5000000000000006E-2</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B17" s="8">
-        <v>0.67600000000000005</v>
+        <v>102</v>
+      </c>
+      <c r="B17" s="5">
+        <v>0.82199999999999995</v>
       </c>
       <c r="C17" s="9">
-        <v>0.55600000000000005</v>
+        <v>0.52900000000000003</v>
       </c>
       <c r="D17" s="6">
-        <v>0.27200000000000002</v>
+        <v>0.30299999999999999</v>
       </c>
       <c r="E17" s="6">
-        <v>0.318</v>
+        <v>0.313</v>
       </c>
       <c r="F17" s="10">
-        <v>0.42199999999999999</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="G17" s="6">
-        <v>0.25700000000000001</v>
+        <v>0.26700000000000002</v>
       </c>
       <c r="H17" s="6">
-        <v>0.30499999999999999</v>
+        <v>0.29599999999999999</v>
       </c>
       <c r="I17" s="10">
-        <v>0.501</v>
-      </c>
-      <c r="J17" s="7">
-        <v>0.20599999999999999</v>
+        <v>0.44</v>
+      </c>
+      <c r="J17" s="6">
+        <v>0.23100000000000001</v>
       </c>
       <c r="K17" s="6">
-        <v>0.26500000000000001</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="L17" s="21">
-        <v>8.5000000000000006E-2</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="M17" s="21">
-        <v>8.5999999999999993E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B18" s="10">
-        <v>0.47</v>
-      </c>
-      <c r="C18" s="21">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="D18" s="21">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="E18" s="21">
-        <v>8.8999999999999996E-2</v>
-      </c>
-      <c r="F18" s="21">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="G18" s="21">
-        <v>8.6999999999999994E-2</v>
-      </c>
-      <c r="H18" s="21">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="I18" s="21">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="J18" s="21">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="K18" s="21">
-        <v>8.4000000000000005E-2</v>
+        <v>103</v>
+      </c>
+      <c r="B18" s="8">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="C18" s="9">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0.318</v>
+      </c>
+      <c r="F18" s="10">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="H18" s="6">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="I18" s="10">
+        <v>0.501</v>
+      </c>
+      <c r="J18" s="7">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="K18" s="6">
+        <v>0.26500000000000001</v>
       </c>
       <c r="L18" s="21">
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="M18" s="21">
-        <v>9.1999999999999998E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" s="10">
+        <v>0.47</v>
+      </c>
+      <c r="C19" s="21">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="D19" s="21">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="E19" s="21">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="F19" s="21">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="G19" s="21">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="H19" s="21">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="I19" s="21">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="J19" s="21">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="K19" s="21">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="L19" s="21">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="M19" s="21">
+        <v>9.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B20" s="6">
         <v>0.251</v>
       </c>
-      <c r="C19" s="21">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="D19" s="21">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="E19" s="21">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="F19" s="21">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="G19" s="21">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="H19" s="21">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="I19" s="21">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="J19" s="21">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="K19" s="21">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="L19" s="21">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="M19" s="21">
+      <c r="C20" s="21">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="D20" s="21">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="E20" s="21">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="F20" s="21">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="G20" s="21">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="H20" s="21">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="I20" s="21">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="J20" s="21">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="K20" s="21">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="L20" s="21">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="M20" s="21">
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
-      <c r="B20" s="1">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="4"/>
+      <c r="B21" s="1">
         <v>1</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C21" s="1">
         <v>2</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D21" s="1">
         <v>3</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E21" s="1">
         <v>4</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F21" s="1">
         <v>5</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G21" s="1">
         <v>6</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H21" s="1">
         <v>7</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I21" s="1">
         <v>8</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J21" s="1">
         <v>9</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K21" s="1">
         <v>10</v>
       </c>
-      <c r="L20" s="20">
+      <c r="L21" s="20">
         <v>11</v>
       </c>
-      <c r="M20" s="20">
+      <c r="M21" s="20">
         <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B21" s="11">
-        <v>2.0960000000000001</v>
-      </c>
-      <c r="C21" s="10">
-        <v>0.504</v>
-      </c>
-      <c r="D21" s="6">
-        <v>0.255</v>
-      </c>
-      <c r="E21" s="6">
-        <v>0.32600000000000001</v>
-      </c>
-      <c r="F21" s="10">
-        <v>0.41899999999999998</v>
-      </c>
-      <c r="G21" s="7">
-        <v>0.19700000000000001</v>
-      </c>
-      <c r="H21" s="6">
-        <v>0.28699999999999998</v>
-      </c>
-      <c r="I21" s="10">
-        <v>0.38100000000000001</v>
-      </c>
-      <c r="J21" s="7">
-        <v>0.17399999999999999</v>
-      </c>
-      <c r="K21" s="6">
-        <v>0.35899999999999999</v>
-      </c>
-      <c r="L21" s="21">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="M21" s="21">
-        <v>9.9000000000000005E-2</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B22" s="12">
-        <v>1.7450000000000001</v>
-      </c>
-      <c r="C22" s="9">
-        <v>0.52500000000000002</v>
+        <v>98</v>
+      </c>
+      <c r="B22" s="11">
+        <v>2.0960000000000001</v>
+      </c>
+      <c r="C22" s="10">
+        <v>0.504</v>
       </c>
       <c r="D22" s="6">
-        <v>0.249</v>
+        <v>0.255</v>
       </c>
       <c r="E22" s="6">
-        <v>0.32300000000000001</v>
+        <v>0.32600000000000001</v>
       </c>
       <c r="F22" s="10">
-        <v>0.42599999999999999</v>
+        <v>0.41899999999999998</v>
       </c>
       <c r="G22" s="7">
-        <v>0.185</v>
+        <v>0.19700000000000001</v>
       </c>
       <c r="H22" s="6">
-        <v>0.28199999999999997</v>
+        <v>0.28699999999999998</v>
       </c>
       <c r="I22" s="10">
-        <v>0.38200000000000001</v>
+        <v>0.38100000000000001</v>
       </c>
       <c r="J22" s="7">
-        <v>0.182</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="K22" s="6">
-        <v>0.28899999999999998</v>
+        <v>0.35899999999999999</v>
       </c>
       <c r="L22" s="21">
-        <v>8.6999999999999994E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="M22" s="21">
-        <v>8.6999999999999994E-2</v>
+        <v>9.9000000000000005E-2</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B23" s="15">
-        <v>1.4239999999999999</v>
+        <v>99</v>
+      </c>
+      <c r="B23" s="12">
+        <v>1.7450000000000001</v>
       </c>
       <c r="C23" s="9">
-        <v>0.61899999999999999</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="D23" s="6">
-        <v>0.28299999999999997</v>
+        <v>0.249</v>
       </c>
       <c r="E23" s="6">
-        <v>0.33200000000000002</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="F23" s="10">
-        <v>0.47</v>
-      </c>
-      <c r="G23" s="6">
-        <v>0.25600000000000001</v>
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="G23" s="7">
+        <v>0.185</v>
       </c>
       <c r="H23" s="6">
-        <v>0.30199999999999999</v>
+        <v>0.28199999999999997</v>
       </c>
       <c r="I23" s="10">
-        <v>0.42199999999999999</v>
+        <v>0.38200000000000001</v>
       </c>
       <c r="J23" s="7">
-        <v>0.214</v>
+        <v>0.182</v>
       </c>
       <c r="K23" s="6">
-        <v>0.28100000000000003</v>
+        <v>0.28899999999999998</v>
       </c>
       <c r="L23" s="21">
-        <v>8.5000000000000006E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="M23" s="21">
-        <v>8.5000000000000006E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B24" s="14">
-        <v>1.0569999999999999</v>
+        <v>100</v>
+      </c>
+      <c r="B24" s="15">
+        <v>1.4239999999999999</v>
       </c>
       <c r="C24" s="9">
-        <v>0.57899999999999996</v>
+        <v>0.61899999999999999</v>
       </c>
       <c r="D24" s="6">
-        <v>0.28699999999999998</v>
+        <v>0.28299999999999997</v>
       </c>
       <c r="E24" s="6">
-        <v>0.34699999999999998</v>
+        <v>0.33200000000000002</v>
       </c>
       <c r="F24" s="10">
-        <v>0.443</v>
+        <v>0.47</v>
       </c>
       <c r="G24" s="6">
-        <v>0.26500000000000001</v>
+        <v>0.25600000000000001</v>
       </c>
       <c r="H24" s="6">
-        <v>0.29499999999999998</v>
+        <v>0.30199999999999999</v>
       </c>
       <c r="I24" s="10">
-        <v>0.39500000000000002</v>
+        <v>0.42199999999999999</v>
       </c>
       <c r="J24" s="7">
-        <v>0.20899999999999999</v>
+        <v>0.214</v>
       </c>
       <c r="K24" s="6">
-        <v>0.26600000000000001</v>
+        <v>0.28100000000000003</v>
       </c>
       <c r="L24" s="21">
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="M24" s="21">
-        <v>8.4000000000000005E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B25" s="5">
-        <v>0.86899999999999999</v>
+        <v>101</v>
+      </c>
+      <c r="B25" s="14">
+        <v>1.0569999999999999</v>
       </c>
       <c r="C25" s="9">
-        <v>0.60899999999999999</v>
+        <v>0.57899999999999996</v>
       </c>
       <c r="D25" s="6">
-        <v>0.33</v>
+        <v>0.28699999999999998</v>
       </c>
       <c r="E25" s="6">
-        <v>0.35599999999999998</v>
+        <v>0.34699999999999998</v>
       </c>
       <c r="F25" s="10">
-        <v>0.48699999999999999</v>
+        <v>0.443</v>
       </c>
       <c r="G25" s="6">
-        <v>0.27600000000000002</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="H25" s="6">
-        <v>0.309</v>
+        <v>0.29499999999999998</v>
       </c>
       <c r="I25" s="10">
-        <v>0.45500000000000002</v>
-      </c>
-      <c r="J25" s="6">
-        <v>0.23499999999999999</v>
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="J25" s="7">
+        <v>0.20899999999999999</v>
       </c>
       <c r="K25" s="6">
-        <v>0.28599999999999998</v>
+        <v>0.26600000000000001</v>
       </c>
       <c r="L25" s="21">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="M25" s="21">
         <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="M25" s="21">
-        <v>8.5000000000000006E-2</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B26" s="8">
-        <v>0.69899999999999995</v>
+        <v>102</v>
+      </c>
+      <c r="B26" s="5">
+        <v>0.86899999999999999</v>
       </c>
       <c r="C26" s="9">
-        <v>0.623</v>
+        <v>0.60899999999999999</v>
       </c>
       <c r="D26" s="6">
-        <v>0.29499999999999998</v>
+        <v>0.33</v>
       </c>
       <c r="E26" s="6">
-        <v>0.35799999999999998</v>
+        <v>0.35599999999999998</v>
       </c>
       <c r="F26" s="10">
-        <v>0.44400000000000001</v>
+        <v>0.48699999999999999</v>
       </c>
       <c r="G26" s="6">
-        <v>0.26400000000000001</v>
+        <v>0.27600000000000002</v>
       </c>
       <c r="H26" s="6">
-        <v>0.317</v>
+        <v>0.309</v>
       </c>
       <c r="I26" s="10">
-        <v>0.51700000000000002</v>
-      </c>
-      <c r="J26" s="7">
-        <v>0.20899999999999999</v>
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="J26" s="6">
+        <v>0.23499999999999999</v>
       </c>
       <c r="K26" s="6">
-        <v>0.27100000000000002</v>
+        <v>0.28599999999999998</v>
       </c>
       <c r="L26" s="21">
-        <v>8.5000000000000006E-2</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="M26" s="21">
-        <v>8.5999999999999993E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B27" s="10">
-        <v>0.48899999999999999</v>
-      </c>
-      <c r="C27" s="7">
-        <v>8.8999999999999996E-2</v>
-      </c>
-      <c r="D27" s="7">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="E27" s="7">
-        <v>8.8999999999999996E-2</v>
-      </c>
-      <c r="F27" s="7">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="G27" s="7">
-        <v>8.6999999999999994E-2</v>
-      </c>
-      <c r="H27" s="7">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="I27" s="7">
-        <v>8.5999999999999993E-2</v>
+        <v>103</v>
+      </c>
+      <c r="B27" s="8">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="C27" s="9">
+        <v>0.623</v>
+      </c>
+      <c r="D27" s="6">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="E27" s="6">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="F27" s="10">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="G27" s="6">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="H27" s="6">
+        <v>0.317</v>
+      </c>
+      <c r="I27" s="10">
+        <v>0.51700000000000002</v>
       </c>
       <c r="J27" s="7">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="K27" s="7">
-        <v>8.4000000000000005E-2</v>
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="K27" s="6">
+        <v>0.27100000000000002</v>
       </c>
       <c r="L27" s="21">
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="M27" s="21">
-        <v>9.1999999999999998E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B28" s="10">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="C28" s="7">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="D28" s="7">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="E28" s="7">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="F28" s="7">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="G28" s="7">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="H28" s="7">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="I28" s="7">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="J28" s="7">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="K28" s="7">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="L28" s="21">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="M28" s="21">
+        <v>9.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B29" s="6">
         <v>0.25800000000000001</v>
       </c>
-      <c r="C28" s="7">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="D28" s="7">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="E28" s="7">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="F28" s="7">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="G28" s="7">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="H28" s="7">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="I28" s="7">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="J28" s="7">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="K28" s="7">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="L28" s="21">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="M28" s="21">
+      <c r="C29" s="7">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="D29" s="7">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="E29" s="7">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="F29" s="7">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="G29" s="7">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="H29" s="7">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="I29" s="7">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="J29" s="7">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="K29" s="7">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="L29" s="21">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="M29" s="21">
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="4"/>
-      <c r="B29" s="1">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="4"/>
+      <c r="B30" s="1">
         <v>1</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C30" s="1">
         <v>2</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D30" s="1">
         <v>3</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E30" s="1">
         <v>4</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F30" s="1">
         <v>5</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G30" s="1">
         <v>6</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H30" s="1">
         <v>7</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I30" s="1">
         <v>8</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J30" s="1">
         <v>9</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K30" s="1">
         <v>10</v>
       </c>
-      <c r="L29" s="20">
+      <c r="L30" s="20">
         <v>11</v>
       </c>
-      <c r="M29" s="20">
+      <c r="M30" s="20">
         <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B30" s="11">
-        <v>2.133</v>
-      </c>
-      <c r="C30" s="9">
-        <v>0.53700000000000003</v>
-      </c>
-      <c r="D30" s="6">
-        <v>0.26500000000000001</v>
-      </c>
-      <c r="E30" s="6">
-        <v>0.34300000000000003</v>
-      </c>
-      <c r="F30" s="10">
-        <v>0.434</v>
-      </c>
-      <c r="G30" s="7">
-        <v>0.20100000000000001</v>
-      </c>
-      <c r="H30" s="6">
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="I30" s="10">
-        <v>0.39</v>
-      </c>
-      <c r="J30" s="7">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="K30" s="6">
-        <v>0.36799999999999999</v>
-      </c>
-      <c r="L30" s="21">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="M30" s="21">
-        <v>9.9000000000000005E-2</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B31" s="12">
-        <v>1.7709999999999999</v>
+        <v>98</v>
+      </c>
+      <c r="B31" s="11">
+        <v>2.133</v>
       </c>
       <c r="C31" s="9">
-        <v>0.55600000000000005</v>
+        <v>0.53700000000000003</v>
       </c>
       <c r="D31" s="6">
-        <v>0.25900000000000001</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="E31" s="6">
-        <v>0.34200000000000003</v>
+        <v>0.34300000000000003</v>
       </c>
       <c r="F31" s="10">
-        <v>0.441</v>
+        <v>0.434</v>
       </c>
       <c r="G31" s="7">
-        <v>0.188</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="H31" s="6">
-        <v>0.28899999999999998</v>
+        <v>0.29499999999999998</v>
       </c>
       <c r="I31" s="10">
-        <v>0.39100000000000001</v>
+        <v>0.39</v>
       </c>
       <c r="J31" s="7">
-        <v>0.183</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="K31" s="6">
-        <v>0.29499999999999998</v>
+        <v>0.36799999999999999</v>
       </c>
       <c r="L31" s="21">
-        <v>8.6999999999999994E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="M31" s="21">
-        <v>8.6999999999999994E-2</v>
+        <v>9.9000000000000005E-2</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B32" s="15">
-        <v>1.454</v>
+        <v>99</v>
+      </c>
+      <c r="B32" s="12">
+        <v>1.7709999999999999</v>
       </c>
       <c r="C32" s="9">
-        <v>0.66</v>
+        <v>0.55600000000000005</v>
       </c>
       <c r="D32" s="6">
-        <v>0.29599999999999999</v>
+        <v>0.25900000000000001</v>
       </c>
       <c r="E32" s="6">
-        <v>0.35299999999999998</v>
+        <v>0.34200000000000003</v>
       </c>
       <c r="F32" s="10">
-        <v>0.48499999999999999</v>
-      </c>
-      <c r="G32" s="6">
-        <v>0.26100000000000001</v>
+        <v>0.441</v>
+      </c>
+      <c r="G32" s="7">
+        <v>0.188</v>
       </c>
       <c r="H32" s="6">
-        <v>0.31</v>
+        <v>0.28899999999999998</v>
       </c>
       <c r="I32" s="10">
-        <v>0.43</v>
+        <v>0.39100000000000001</v>
       </c>
       <c r="J32" s="7">
-        <v>0.217</v>
+        <v>0.183</v>
       </c>
       <c r="K32" s="6">
-        <v>0.28499999999999998</v>
+        <v>0.29499999999999998</v>
       </c>
       <c r="L32" s="21">
-        <v>8.5000000000000006E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="M32" s="21">
-        <v>8.5000000000000006E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B33" s="14">
-        <v>1.0840000000000001</v>
+        <v>100</v>
+      </c>
+      <c r="B33" s="15">
+        <v>1.454</v>
       </c>
       <c r="C33" s="9">
-        <v>0.61699999999999999</v>
+        <v>0.66</v>
       </c>
       <c r="D33" s="6">
-        <v>0.29799999999999999</v>
+        <v>0.29599999999999999</v>
       </c>
       <c r="E33" s="6">
-        <v>0.376</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="F33" s="10">
-        <v>0.46300000000000002</v>
+        <v>0.48499999999999999</v>
       </c>
       <c r="G33" s="6">
-        <v>0.27100000000000002</v>
+        <v>0.26100000000000001</v>
       </c>
       <c r="H33" s="6">
-        <v>0.30099999999999999</v>
+        <v>0.31</v>
       </c>
       <c r="I33" s="10">
-        <v>0.40400000000000003</v>
+        <v>0.43</v>
       </c>
       <c r="J33" s="7">
-        <v>0.21199999999999999</v>
+        <v>0.217</v>
       </c>
       <c r="K33" s="6">
-        <v>0.27100000000000002</v>
+        <v>0.28499999999999998</v>
       </c>
       <c r="L33" s="21">
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="M33" s="21">
-        <v>8.4000000000000005E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B34" s="5">
-        <v>0.89600000000000002</v>
+        <v>101</v>
+      </c>
+      <c r="B34" s="14">
+        <v>1.0840000000000001</v>
       </c>
       <c r="C34" s="9">
-        <v>0.65</v>
+        <v>0.61699999999999999</v>
       </c>
       <c r="D34" s="6">
-        <v>0.34899999999999998</v>
-      </c>
-      <c r="E34" s="10">
-        <v>0.38</v>
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="E34" s="6">
+        <v>0.376</v>
       </c>
       <c r="F34" s="10">
-        <v>0.50800000000000001</v>
+        <v>0.46300000000000002</v>
       </c>
       <c r="G34" s="6">
-        <v>0.28199999999999997</v>
+        <v>0.27100000000000002</v>
       </c>
       <c r="H34" s="6">
-        <v>0.317</v>
+        <v>0.30099999999999999</v>
       </c>
       <c r="I34" s="10">
-        <v>0.46600000000000003</v>
-      </c>
-      <c r="J34" s="6">
-        <v>0.23899999999999999</v>
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="J34" s="7">
+        <v>0.21199999999999999</v>
       </c>
       <c r="K34" s="6">
-        <v>0.29099999999999998</v>
+        <v>0.27100000000000002</v>
       </c>
       <c r="L34" s="21">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="M34" s="21">
         <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="M34" s="21">
-        <v>8.5000000000000006E-2</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B35" s="8">
-        <v>0.72599999999999998</v>
+        <v>102</v>
+      </c>
+      <c r="B35" s="5">
+        <v>0.89600000000000002</v>
       </c>
       <c r="C35" s="9">
-        <v>0.64600000000000002</v>
+        <v>0.65</v>
       </c>
       <c r="D35" s="6">
-        <v>0.309</v>
+        <v>0.34899999999999998</v>
       </c>
       <c r="E35" s="10">
-        <v>0.379</v>
+        <v>0.38</v>
       </c>
       <c r="F35" s="10">
-        <v>0.46</v>
+        <v>0.50800000000000001</v>
       </c>
       <c r="G35" s="6">
-        <v>0.27</v>
+        <v>0.28199999999999997</v>
       </c>
       <c r="H35" s="6">
-        <v>0.32600000000000001</v>
-      </c>
-      <c r="I35" s="9">
-        <v>0.53</v>
-      </c>
-      <c r="J35" s="7">
-        <v>0.21199999999999999</v>
+        <v>0.317</v>
+      </c>
+      <c r="I35" s="10">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="J35" s="6">
+        <v>0.23899999999999999</v>
       </c>
       <c r="K35" s="6">
-        <v>0.27600000000000002</v>
+        <v>0.29099999999999998</v>
       </c>
       <c r="L35" s="21">
-        <v>8.5000000000000006E-2</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="M35" s="21">
-        <v>8.5999999999999993E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B36" s="10">
-        <v>0.51100000000000001</v>
-      </c>
-      <c r="C36" s="21">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="D36" s="21">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="E36" s="21">
-        <v>8.8999999999999996E-2</v>
-      </c>
-      <c r="F36" s="21">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="G36" s="21">
-        <v>8.6999999999999994E-2</v>
-      </c>
-      <c r="H36" s="21">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="I36" s="21">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="J36" s="21">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="K36" s="21">
-        <v>8.4000000000000005E-2</v>
+        <v>103</v>
+      </c>
+      <c r="B36" s="8">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="C36" s="9">
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="D36" s="6">
+        <v>0.309</v>
+      </c>
+      <c r="E36" s="10">
+        <v>0.379</v>
+      </c>
+      <c r="F36" s="10">
+        <v>0.46</v>
+      </c>
+      <c r="G36" s="6">
+        <v>0.27</v>
+      </c>
+      <c r="H36" s="6">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="I36" s="9">
+        <v>0.53</v>
+      </c>
+      <c r="J36" s="7">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="K36" s="6">
+        <v>0.27600000000000002</v>
       </c>
       <c r="L36" s="21">
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="M36" s="21">
-        <v>9.1999999999999998E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37" s="10">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="C37" s="21">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="D37" s="21">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="E37" s="21">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="F37" s="21">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="G37" s="21">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="H37" s="21">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="I37" s="21">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="J37" s="21">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="K37" s="21">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="L37" s="21">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="M37" s="21">
+        <v>9.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B38" s="6">
         <v>0.26600000000000001</v>
       </c>
-      <c r="C37" s="21">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="D37" s="21">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="E37" s="21">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="F37" s="21">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="G37" s="21">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="H37" s="21">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="I37" s="21">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="J37" s="21">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="K37" s="21">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="L37" s="21">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="M37" s="21">
+      <c r="C38" s="21">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="D38" s="21">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="E38" s="21">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="F38" s="21">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="G38" s="21">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="H38" s="21">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="I38" s="21">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="J38" s="21">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="K38" s="21">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="L38" s="21">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="M38" s="21">
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
@@ -6656,10 +9510,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5687995-DEAA-EA4C-B868-8C26545B9631}">
-  <dimension ref="A1:M44"/>
+  <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:K1"/>
+      <selection activeCell="A31" sqref="A31:K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6689,285 +9543,273 @@
       <c r="M1" s="43"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="1">
+      <c r="C2" s="23">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="E2" s="23">
+        <v>0.7</v>
+      </c>
+      <c r="F2" s="23">
+        <v>1</v>
+      </c>
+      <c r="G2" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="H2" s="23">
+        <v>0.7</v>
+      </c>
+      <c r="I2" s="23">
+        <v>1</v>
+      </c>
+      <c r="J2" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="K2" s="23">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
         <v>2</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D3" s="1">
         <v>3</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E3" s="1">
         <v>4</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F3" s="1">
         <v>5</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G3" s="1">
         <v>6</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H3" s="1">
         <v>7</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I3" s="1">
         <v>8</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J3" s="1">
         <v>9</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K3" s="1">
         <v>10</v>
       </c>
-      <c r="L2" s="20">
+      <c r="L3" s="20">
         <v>11</v>
       </c>
-      <c r="M2" s="20">
+      <c r="M3" s="20">
         <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" s="32">
-        <v>0.89300000000000002</v>
-      </c>
-      <c r="C3" s="32">
-        <v>0.30299999999999999</v>
-      </c>
-      <c r="D3" s="32">
-        <v>0.19600000000000001</v>
-      </c>
-      <c r="E3" s="32">
-        <v>0.223</v>
-      </c>
-      <c r="F3" s="34">
-        <v>0.373</v>
-      </c>
-      <c r="G3" s="34">
-        <v>0.186</v>
-      </c>
-      <c r="H3" s="34">
-        <v>0.25900000000000001</v>
-      </c>
-      <c r="I3" s="24">
-        <v>0.35499999999999998</v>
-      </c>
-      <c r="J3" s="24">
-        <v>0.17100000000000001</v>
-      </c>
-      <c r="K3" s="24">
-        <v>0.33200000000000002</v>
-      </c>
-      <c r="L3" s="21">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="M3" s="21">
-        <v>0.10100000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B4" s="32">
-        <v>0.77700000000000002</v>
+        <v>0.89300000000000002</v>
       </c>
       <c r="C4" s="32">
-        <v>0.308</v>
+        <v>0.30299999999999999</v>
       </c>
       <c r="D4" s="32">
-        <v>0.192</v>
+        <v>0.19600000000000001</v>
       </c>
       <c r="E4" s="32">
-        <v>0.22500000000000001</v>
+        <v>0.223</v>
       </c>
       <c r="F4" s="34">
-        <v>0.372</v>
+        <v>0.373</v>
       </c>
       <c r="G4" s="34">
-        <v>0.18</v>
+        <v>0.186</v>
       </c>
       <c r="H4" s="34">
-        <v>0.255</v>
+        <v>0.25900000000000001</v>
       </c>
       <c r="I4" s="24">
-        <v>0.35699999999999998</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="J4" s="24">
-        <v>0.17899999999999999</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="K4" s="24">
-        <v>0.27600000000000002</v>
+        <v>0.33200000000000002</v>
       </c>
       <c r="L4" s="21">
-        <v>8.6999999999999994E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="M4" s="21">
-        <v>8.6999999999999994E-2</v>
+        <v>0.10100000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5" s="32">
-        <v>0.57399999999999995</v>
+        <v>0.77700000000000002</v>
       </c>
       <c r="C5" s="32">
-        <v>0.34899999999999998</v>
+        <v>0.308</v>
       </c>
       <c r="D5" s="32">
-        <v>0.218</v>
+        <v>0.192</v>
       </c>
       <c r="E5" s="32">
-        <v>0.22600000000000001</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="F5" s="34">
-        <v>0.41899999999999998</v>
+        <v>0.372</v>
       </c>
       <c r="G5" s="34">
-        <v>0.23799999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="H5" s="34">
-        <v>0.27500000000000002</v>
+        <v>0.255</v>
       </c>
       <c r="I5" s="24">
-        <v>0.39200000000000002</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="J5" s="24">
-        <v>0.20799999999999999</v>
+        <v>0.17899999999999999</v>
       </c>
       <c r="K5" s="24">
-        <v>0.26800000000000002</v>
+        <v>0.27600000000000002</v>
       </c>
       <c r="L5" s="21">
-        <v>8.5000000000000006E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="M5" s="21">
-        <v>8.5000000000000006E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" s="32">
-        <v>0.45100000000000001</v>
+        <v>0.57399999999999995</v>
       </c>
       <c r="C6" s="32">
-        <v>0.33400000000000002</v>
+        <v>0.34899999999999998</v>
       </c>
       <c r="D6" s="32">
-        <v>0.22</v>
+        <v>0.218</v>
       </c>
       <c r="E6" s="32">
-        <v>0.22800000000000001</v>
+        <v>0.22600000000000001</v>
       </c>
       <c r="F6" s="34">
-        <v>0.38700000000000001</v>
+        <v>0.41899999999999998</v>
       </c>
       <c r="G6" s="34">
-        <v>0.24299999999999999</v>
+        <v>0.23799999999999999</v>
       </c>
       <c r="H6" s="34">
-        <v>0.26900000000000002</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="I6" s="24">
-        <v>0.373</v>
+        <v>0.39200000000000002</v>
       </c>
       <c r="J6" s="24">
-        <v>0.20399999999999999</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="K6" s="24">
-        <v>0.254</v>
+        <v>0.26800000000000002</v>
       </c>
       <c r="L6" s="21">
-        <v>0.09</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="M6" s="21">
-        <v>8.4000000000000005E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B7" s="32">
-        <v>0.39400000000000002</v>
+        <v>0.45100000000000001</v>
       </c>
       <c r="C7" s="32">
-        <v>0.33600000000000002</v>
+        <v>0.33400000000000002</v>
       </c>
       <c r="D7" s="32">
-        <v>0.24099999999999999</v>
+        <v>0.22</v>
       </c>
       <c r="E7" s="32">
-        <v>0.23799999999999999</v>
+        <v>0.22800000000000001</v>
       </c>
       <c r="F7" s="34">
-        <v>0.42599999999999999</v>
+        <v>0.38700000000000001</v>
       </c>
       <c r="G7" s="34">
-        <v>0.255</v>
+        <v>0.24299999999999999</v>
       </c>
       <c r="H7" s="34">
-        <v>0.28100000000000003</v>
+        <v>0.26900000000000002</v>
       </c>
       <c r="I7" s="24">
-        <v>0.42399999999999999</v>
+        <v>0.373</v>
       </c>
       <c r="J7" s="24">
-        <v>0.22600000000000001</v>
+        <v>0.20399999999999999</v>
       </c>
       <c r="K7" s="24">
-        <v>0.27300000000000002</v>
+        <v>0.254</v>
       </c>
       <c r="L7" s="21">
+        <v>0.09</v>
+      </c>
+      <c r="M7" s="21">
         <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="M7" s="21">
-        <v>8.5999999999999993E-2</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B8" s="32">
-        <v>0.38200000000000001</v>
+        <v>0.39400000000000002</v>
       </c>
       <c r="C8" s="32">
-        <v>0.37</v>
+        <v>0.33600000000000002</v>
       </c>
       <c r="D8" s="32">
-        <v>0.218</v>
+        <v>0.24099999999999999</v>
       </c>
       <c r="E8" s="32">
-        <v>0.24</v>
+        <v>0.23799999999999999</v>
       </c>
       <c r="F8" s="34">
-        <v>0.39100000000000001</v>
+        <v>0.42599999999999999</v>
       </c>
       <c r="G8" s="34">
-        <v>0.246</v>
+        <v>0.255</v>
       </c>
       <c r="H8" s="34">
-        <v>0.28699999999999998</v>
+        <v>0.28100000000000003</v>
       </c>
       <c r="I8" s="24">
-        <v>0.48099999999999998</v>
+        <v>0.42399999999999999</v>
       </c>
       <c r="J8" s="24">
-        <v>0.20399999999999999</v>
+        <v>0.22600000000000001</v>
       </c>
       <c r="K8" s="24">
-        <v>0.25800000000000001</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="L8" s="21">
-        <v>8.5000000000000006E-2</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="M8" s="21">
         <v>8.5999999999999993E-2</v>
@@ -6975,1214 +9817,1255 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B9" s="32">
-        <v>0.26300000000000001</v>
+        <v>0.38200000000000001</v>
       </c>
       <c r="C9" s="32">
-        <v>8.7999999999999995E-2</v>
+        <v>0.37</v>
       </c>
       <c r="D9" s="32">
-        <v>9.1999999999999998E-2</v>
+        <v>0.218</v>
       </c>
       <c r="E9" s="32">
-        <v>8.8999999999999996E-2</v>
+        <v>0.24</v>
       </c>
       <c r="F9" s="34">
-        <v>8.5999999999999993E-2</v>
+        <v>0.39100000000000001</v>
       </c>
       <c r="G9" s="34">
-        <v>8.6999999999999994E-2</v>
+        <v>0.246</v>
       </c>
       <c r="H9" s="34">
-        <v>8.5999999999999993E-2</v>
+        <v>0.28699999999999998</v>
       </c>
       <c r="I9" s="24">
-        <v>8.5999999999999993E-2</v>
+        <v>0.48099999999999998</v>
       </c>
       <c r="J9" s="24">
-        <v>8.4000000000000005E-2</v>
+        <v>0.20399999999999999</v>
       </c>
       <c r="K9" s="24">
-        <v>8.4000000000000005E-2</v>
+        <v>0.25800000000000001</v>
       </c>
       <c r="L9" s="21">
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="M9" s="21">
-        <v>8.8999999999999996E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="32">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="C10" s="32">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="D10" s="32">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="E10" s="32">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="F10" s="34">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="G10" s="34">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="H10" s="34">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="I10" s="24">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="J10" s="24">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="K10" s="24">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="L10" s="21">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="M10" s="21">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B10" s="32">
+      <c r="B11" s="32">
         <v>0.16800000000000001</v>
       </c>
-      <c r="C10" s="32">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="D10" s="32">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="E10" s="32">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="F10" s="34">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="G10" s="34">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="H10" s="34">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="I10" s="24">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="J10" s="24">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="K10" s="24">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="L10" s="21">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="M10" s="21">
+      <c r="C11" s="32">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="D11" s="32">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="E11" s="32">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="F11" s="34">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="G11" s="34">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="H11" s="34">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="I11" s="24">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="J11" s="24">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="K11" s="24">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="L11" s="21">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="M11" s="21">
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="1">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="4"/>
+      <c r="B12" s="1">
         <v>1</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C12" s="1">
         <v>2</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D12" s="1">
         <v>3</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E12" s="1">
         <v>4</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F12" s="1">
         <v>5</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G12" s="1">
         <v>6</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H12" s="1">
         <v>7</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I12" s="1">
         <v>8</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J12" s="1">
         <v>9</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K12" s="1">
         <v>10</v>
       </c>
-      <c r="L11" s="20">
+      <c r="L12" s="20">
         <v>11</v>
       </c>
-      <c r="M11" s="20">
+      <c r="M12" s="20">
         <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B12" s="34">
-        <v>2.028</v>
-      </c>
-      <c r="C12" s="34">
-        <v>0.437</v>
-      </c>
-      <c r="D12" s="34">
-        <v>0.23699999999999999</v>
-      </c>
-      <c r="E12" s="34">
-        <v>0.29399999999999998</v>
-      </c>
-      <c r="F12" s="24">
-        <v>0.39900000000000002</v>
-      </c>
-      <c r="G12" s="24">
-        <v>0.193</v>
-      </c>
-      <c r="H12" s="24">
-        <v>0.27600000000000002</v>
-      </c>
-      <c r="I12" s="26">
-        <v>0.37</v>
-      </c>
-      <c r="J12" s="26">
-        <v>0.17199999999999999</v>
-      </c>
-      <c r="K12" s="26">
-        <v>0.34599999999999997</v>
-      </c>
-      <c r="L12" s="21">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="M12" s="21">
-        <v>0.10100000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B13" s="34">
-        <v>1.714</v>
+        <v>2.028</v>
       </c>
       <c r="C13" s="34">
-        <v>0.45600000000000002</v>
+        <v>0.437</v>
       </c>
       <c r="D13" s="34">
-        <v>0.23200000000000001</v>
+        <v>0.23699999999999999</v>
       </c>
       <c r="E13" s="34">
-        <v>0.28899999999999998</v>
+        <v>0.29399999999999998</v>
       </c>
       <c r="F13" s="24">
-        <v>0.40500000000000003</v>
+        <v>0.39900000000000002</v>
       </c>
       <c r="G13" s="24">
-        <v>0.183</v>
+        <v>0.193</v>
       </c>
       <c r="H13" s="24">
-        <v>0.27</v>
+        <v>0.27600000000000002</v>
       </c>
       <c r="I13" s="26">
-        <v>0.371</v>
+        <v>0.37</v>
       </c>
       <c r="J13" s="26">
-        <v>0.18</v>
+        <v>0.17199999999999999</v>
       </c>
       <c r="K13" s="26">
-        <v>0.28299999999999997</v>
+        <v>0.34599999999999997</v>
       </c>
       <c r="L13" s="21">
-        <v>8.6999999999999994E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="M13" s="21">
-        <v>8.6999999999999994E-2</v>
+        <v>0.10100000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B14" s="34">
-        <v>1.3839999999999999</v>
+        <v>1.714</v>
       </c>
       <c r="C14" s="34">
-        <v>0.53700000000000003</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="D14" s="34">
-        <v>0.26300000000000001</v>
+        <v>0.23200000000000001</v>
       </c>
       <c r="E14" s="34">
-        <v>0.29499999999999998</v>
+        <v>0.28899999999999998</v>
       </c>
       <c r="F14" s="24">
-        <v>0.45</v>
+        <v>0.40500000000000003</v>
       </c>
       <c r="G14" s="24">
-        <v>0.247</v>
+        <v>0.183</v>
       </c>
       <c r="H14" s="24">
-        <v>0.28999999999999998</v>
+        <v>0.27</v>
       </c>
       <c r="I14" s="26">
-        <v>0.40899999999999997</v>
+        <v>0.371</v>
       </c>
       <c r="J14" s="26">
-        <v>0.21099999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="K14" s="26">
-        <v>0.27500000000000002</v>
+        <v>0.28299999999999997</v>
       </c>
       <c r="L14" s="21">
-        <v>8.5000000000000006E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="M14" s="21">
-        <v>8.5000000000000006E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B15" s="34">
-        <v>1.008</v>
+        <v>1.3839999999999999</v>
       </c>
       <c r="C15" s="34">
-        <v>0.5</v>
+        <v>0.53700000000000003</v>
       </c>
       <c r="D15" s="34">
-        <v>0.26600000000000001</v>
+        <v>0.26300000000000001</v>
       </c>
       <c r="E15" s="34">
-        <v>0.30199999999999999</v>
+        <v>0.29499999999999998</v>
       </c>
       <c r="F15" s="24">
-        <v>0.42</v>
+        <v>0.45</v>
       </c>
       <c r="G15" s="24">
-        <v>0.25700000000000001</v>
+        <v>0.247</v>
       </c>
       <c r="H15" s="24">
-        <v>0.28399999999999997</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="I15" s="26">
-        <v>0.38500000000000001</v>
+        <v>0.40899999999999997</v>
       </c>
       <c r="J15" s="26">
-        <v>0.20599999999999999</v>
+        <v>0.21099999999999999</v>
       </c>
       <c r="K15" s="26">
-        <v>0.26</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="L15" s="21">
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="M15" s="21">
-        <v>8.4000000000000005E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B16" s="34">
-        <v>0.82199999999999995</v>
+        <v>1.008</v>
       </c>
       <c r="C16" s="34">
-        <v>0.52900000000000003</v>
+        <v>0.5</v>
       </c>
       <c r="D16" s="34">
-        <v>0.30299999999999999</v>
+        <v>0.26600000000000001</v>
       </c>
       <c r="E16" s="34">
-        <v>0.313</v>
+        <v>0.30199999999999999</v>
       </c>
       <c r="F16" s="24">
-        <v>0.46500000000000002</v>
+        <v>0.42</v>
       </c>
       <c r="G16" s="24">
-        <v>0.26700000000000002</v>
+        <v>0.25700000000000001</v>
       </c>
       <c r="H16" s="24">
-        <v>0.29599999999999999</v>
+        <v>0.28399999999999997</v>
       </c>
       <c r="I16" s="26">
-        <v>0.44</v>
+        <v>0.38500000000000001</v>
       </c>
       <c r="J16" s="26">
-        <v>0.23100000000000001</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="K16" s="26">
-        <v>0.28000000000000003</v>
+        <v>0.26</v>
       </c>
       <c r="L16" s="21">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="M16" s="21">
         <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="M16" s="21">
-        <v>8.5000000000000006E-2</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B17" s="34">
-        <v>0.67600000000000005</v>
+        <v>0.82199999999999995</v>
       </c>
       <c r="C17" s="34">
-        <v>0.55600000000000005</v>
+        <v>0.52900000000000003</v>
       </c>
       <c r="D17" s="34">
-        <v>0.27200000000000002</v>
+        <v>0.30299999999999999</v>
       </c>
       <c r="E17" s="34">
-        <v>0.318</v>
+        <v>0.313</v>
       </c>
       <c r="F17" s="24">
-        <v>0.42199999999999999</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="G17" s="24">
-        <v>0.25700000000000001</v>
+        <v>0.26700000000000002</v>
       </c>
       <c r="H17" s="24">
-        <v>0.30499999999999999</v>
+        <v>0.29599999999999999</v>
       </c>
       <c r="I17" s="26">
-        <v>0.501</v>
+        <v>0.44</v>
       </c>
       <c r="J17" s="26">
-        <v>0.20599999999999999</v>
+        <v>0.23100000000000001</v>
       </c>
       <c r="K17" s="26">
-        <v>0.26500000000000001</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="L17" s="21">
-        <v>8.5000000000000006E-2</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="M17" s="21">
-        <v>8.5999999999999993E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B18" s="34">
-        <v>0.47</v>
+        <v>0.67600000000000005</v>
       </c>
       <c r="C18" s="34">
-        <v>8.7999999999999995E-2</v>
+        <v>0.55600000000000005</v>
       </c>
       <c r="D18" s="34">
-        <v>9.1999999999999998E-2</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="E18" s="34">
-        <v>8.8999999999999996E-2</v>
+        <v>0.318</v>
       </c>
       <c r="F18" s="24">
-        <v>8.5000000000000006E-2</v>
+        <v>0.42199999999999999</v>
       </c>
       <c r="G18" s="24">
-        <v>8.6999999999999994E-2</v>
+        <v>0.25700000000000001</v>
       </c>
       <c r="H18" s="24">
-        <v>8.5999999999999993E-2</v>
+        <v>0.30499999999999999</v>
       </c>
       <c r="I18" s="26">
-        <v>8.5999999999999993E-2</v>
+        <v>0.501</v>
       </c>
       <c r="J18" s="26">
-        <v>8.4000000000000005E-2</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="K18" s="26">
-        <v>8.4000000000000005E-2</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="L18" s="21">
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="M18" s="21">
-        <v>9.1999999999999998E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" s="34">
+        <v>0.47</v>
+      </c>
+      <c r="C19" s="34">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="D19" s="34">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="E19" s="34">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="F19" s="24">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="G19" s="24">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="H19" s="24">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="I19" s="26">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="J19" s="26">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="K19" s="26">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="L19" s="21">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="M19" s="21">
+        <v>9.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B19" s="34">
+      <c r="B20" s="34">
         <v>0.251</v>
       </c>
-      <c r="C19" s="34">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="D19" s="34">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="E19" s="34">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="F19" s="24">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="G19" s="24">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="H19" s="24">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="I19" s="26">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="J19" s="26">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="K19" s="26">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="L19" s="21">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="M19" s="21">
+      <c r="C20" s="34">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="D20" s="34">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="E20" s="34">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="F20" s="24">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="G20" s="24">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="H20" s="24">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="I20" s="26">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="J20" s="26">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="K20" s="26">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="L20" s="21">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="M20" s="21">
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
-      <c r="B20" s="1">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="4"/>
+      <c r="B21" s="1">
         <v>1</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C21" s="1">
         <v>2</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D21" s="1">
         <v>3</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E21" s="1">
         <v>4</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F21" s="1">
         <v>5</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G21" s="1">
         <v>6</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H21" s="1">
         <v>7</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I21" s="1">
         <v>8</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J21" s="1">
         <v>9</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K21" s="1">
         <v>10</v>
       </c>
-      <c r="L20" s="20">
+      <c r="L21" s="20">
         <v>11</v>
       </c>
-      <c r="M20" s="20">
+      <c r="M21" s="20">
         <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B21" s="24">
-        <v>2.0960000000000001</v>
-      </c>
-      <c r="C21" s="24">
-        <v>0.504</v>
-      </c>
-      <c r="D21" s="24">
-        <v>0.255</v>
-      </c>
-      <c r="E21" s="24">
-        <v>0.32600000000000001</v>
-      </c>
-      <c r="F21" s="26">
-        <v>0.41899999999999998</v>
-      </c>
-      <c r="G21" s="26">
-        <v>0.19700000000000001</v>
-      </c>
-      <c r="H21" s="26">
-        <v>0.28699999999999998</v>
-      </c>
-      <c r="I21" s="28">
-        <v>0.38100000000000001</v>
-      </c>
-      <c r="J21" s="28">
-        <v>0.17399999999999999</v>
-      </c>
-      <c r="K21" s="28">
-        <v>0.35899999999999999</v>
-      </c>
-      <c r="L21" s="21">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="M21" s="21">
-        <v>9.9000000000000005E-2</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B22" s="24">
-        <v>1.7450000000000001</v>
+        <v>2.0960000000000001</v>
       </c>
       <c r="C22" s="24">
-        <v>0.52500000000000002</v>
+        <v>0.504</v>
       </c>
       <c r="D22" s="24">
-        <v>0.249</v>
+        <v>0.255</v>
       </c>
       <c r="E22" s="24">
-        <v>0.32300000000000001</v>
+        <v>0.32600000000000001</v>
       </c>
       <c r="F22" s="26">
-        <v>0.42599999999999999</v>
+        <v>0.41899999999999998</v>
       </c>
       <c r="G22" s="26">
-        <v>0.185</v>
+        <v>0.19700000000000001</v>
       </c>
       <c r="H22" s="26">
-        <v>0.28199999999999997</v>
+        <v>0.28699999999999998</v>
       </c>
       <c r="I22" s="28">
-        <v>0.38200000000000001</v>
+        <v>0.38100000000000001</v>
       </c>
       <c r="J22" s="28">
-        <v>0.182</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="K22" s="28">
-        <v>0.28899999999999998</v>
+        <v>0.35899999999999999</v>
       </c>
       <c r="L22" s="21">
-        <v>8.6999999999999994E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="M22" s="21">
-        <v>8.6999999999999994E-2</v>
+        <v>9.9000000000000005E-2</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B23" s="24">
-        <v>1.4239999999999999</v>
+        <v>1.7450000000000001</v>
       </c>
       <c r="C23" s="24">
-        <v>0.61899999999999999</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="D23" s="24">
-        <v>0.28299999999999997</v>
+        <v>0.249</v>
       </c>
       <c r="E23" s="24">
-        <v>0.33200000000000002</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="F23" s="26">
-        <v>0.47</v>
+        <v>0.42599999999999999</v>
       </c>
       <c r="G23" s="26">
-        <v>0.25600000000000001</v>
+        <v>0.185</v>
       </c>
       <c r="H23" s="26">
-        <v>0.30199999999999999</v>
+        <v>0.28199999999999997</v>
       </c>
       <c r="I23" s="28">
-        <v>0.42199999999999999</v>
+        <v>0.38200000000000001</v>
       </c>
       <c r="J23" s="28">
-        <v>0.214</v>
+        <v>0.182</v>
       </c>
       <c r="K23" s="28">
-        <v>0.28100000000000003</v>
+        <v>0.28899999999999998</v>
       </c>
       <c r="L23" s="21">
-        <v>8.5000000000000006E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="M23" s="21">
-        <v>8.5000000000000006E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B24" s="24">
-        <v>1.0569999999999999</v>
+        <v>1.4239999999999999</v>
       </c>
       <c r="C24" s="24">
-        <v>0.57899999999999996</v>
+        <v>0.61899999999999999</v>
       </c>
       <c r="D24" s="24">
-        <v>0.28699999999999998</v>
+        <v>0.28299999999999997</v>
       </c>
       <c r="E24" s="24">
-        <v>0.34699999999999998</v>
+        <v>0.33200000000000002</v>
       </c>
       <c r="F24" s="26">
-        <v>0.443</v>
+        <v>0.47</v>
       </c>
       <c r="G24" s="26">
-        <v>0.26500000000000001</v>
+        <v>0.25600000000000001</v>
       </c>
       <c r="H24" s="26">
-        <v>0.29499999999999998</v>
+        <v>0.30199999999999999</v>
       </c>
       <c r="I24" s="28">
-        <v>0.39500000000000002</v>
+        <v>0.42199999999999999</v>
       </c>
       <c r="J24" s="28">
-        <v>0.20899999999999999</v>
+        <v>0.214</v>
       </c>
       <c r="K24" s="28">
-        <v>0.26600000000000001</v>
+        <v>0.28100000000000003</v>
       </c>
       <c r="L24" s="21">
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="M24" s="21">
-        <v>8.4000000000000005E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B25" s="24">
-        <v>0.86899999999999999</v>
+        <v>1.0569999999999999</v>
       </c>
       <c r="C25" s="24">
-        <v>0.60899999999999999</v>
+        <v>0.57899999999999996</v>
       </c>
       <c r="D25" s="24">
-        <v>0.33</v>
+        <v>0.28699999999999998</v>
       </c>
       <c r="E25" s="24">
-        <v>0.35599999999999998</v>
+        <v>0.34699999999999998</v>
       </c>
       <c r="F25" s="26">
-        <v>0.48699999999999999</v>
+        <v>0.443</v>
       </c>
       <c r="G25" s="26">
-        <v>0.27600000000000002</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="H25" s="26">
-        <v>0.309</v>
+        <v>0.29499999999999998</v>
       </c>
       <c r="I25" s="28">
-        <v>0.45500000000000002</v>
+        <v>0.39500000000000002</v>
       </c>
       <c r="J25" s="28">
-        <v>0.23499999999999999</v>
+        <v>0.20899999999999999</v>
       </c>
       <c r="K25" s="28">
-        <v>0.28599999999999998</v>
+        <v>0.26600000000000001</v>
       </c>
       <c r="L25" s="21">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="M25" s="21">
         <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="M25" s="21">
-        <v>8.5000000000000006E-2</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B26" s="24">
-        <v>0.69899999999999995</v>
+        <v>0.86899999999999999</v>
       </c>
       <c r="C26" s="24">
-        <v>0.623</v>
+        <v>0.60899999999999999</v>
       </c>
       <c r="D26" s="24">
-        <v>0.29499999999999998</v>
+        <v>0.33</v>
       </c>
       <c r="E26" s="24">
-        <v>0.35799999999999998</v>
+        <v>0.35599999999999998</v>
       </c>
       <c r="F26" s="26">
-        <v>0.44400000000000001</v>
+        <v>0.48699999999999999</v>
       </c>
       <c r="G26" s="26">
-        <v>0.26400000000000001</v>
+        <v>0.27600000000000002</v>
       </c>
       <c r="H26" s="26">
-        <v>0.317</v>
+        <v>0.309</v>
       </c>
       <c r="I26" s="28">
-        <v>0.51700000000000002</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="J26" s="28">
-        <v>0.20899999999999999</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="K26" s="28">
-        <v>0.27100000000000002</v>
+        <v>0.28599999999999998</v>
       </c>
       <c r="L26" s="21">
-        <v>8.5000000000000006E-2</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="M26" s="21">
-        <v>8.5999999999999993E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B27" s="24">
-        <v>0.48899999999999999</v>
+        <v>0.69899999999999995</v>
       </c>
       <c r="C27" s="24">
-        <v>8.8999999999999996E-2</v>
+        <v>0.623</v>
       </c>
       <c r="D27" s="24">
-        <v>9.1999999999999998E-2</v>
+        <v>0.29499999999999998</v>
       </c>
       <c r="E27" s="24">
-        <v>8.8999999999999996E-2</v>
+        <v>0.35799999999999998</v>
       </c>
       <c r="F27" s="26">
-        <v>8.5999999999999993E-2</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="G27" s="26">
-        <v>8.6999999999999994E-2</v>
+        <v>0.26400000000000001</v>
       </c>
       <c r="H27" s="26">
-        <v>8.5999999999999993E-2</v>
+        <v>0.317</v>
       </c>
       <c r="I27" s="28">
-        <v>8.5999999999999993E-2</v>
+        <v>0.51700000000000002</v>
       </c>
       <c r="J27" s="28">
-        <v>8.4000000000000005E-2</v>
+        <v>0.20899999999999999</v>
       </c>
       <c r="K27" s="28">
-        <v>8.4000000000000005E-2</v>
+        <v>0.27100000000000002</v>
       </c>
       <c r="L27" s="21">
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="M27" s="21">
-        <v>9.1999999999999998E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B28" s="24">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="C28" s="24">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="D28" s="24">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="E28" s="24">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="F28" s="26">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="G28" s="26">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="H28" s="26">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="I28" s="28">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="J28" s="28">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="K28" s="28">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="L28" s="21">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="M28" s="21">
+        <v>9.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B28" s="24">
+      <c r="B29" s="24">
         <v>0.25800000000000001</v>
       </c>
-      <c r="C28" s="24">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="D28" s="24">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="E28" s="24">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="F28" s="26">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="G28" s="26">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="H28" s="26">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="I28" s="28">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="J28" s="28">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="K28" s="28">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="L28" s="21">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="M28" s="21">
+      <c r="C29" s="24">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="D29" s="24">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="E29" s="24">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="F29" s="26">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="G29" s="26">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="H29" s="26">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="I29" s="28">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="J29" s="28">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="K29" s="28">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="L29" s="21">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="M29" s="21">
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="4"/>
-      <c r="B29" s="1">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="4"/>
+      <c r="B30" s="1">
         <v>1</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C30" s="1">
         <v>2</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D30" s="1">
         <v>3</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E30" s="1">
         <v>4</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F30" s="1">
         <v>5</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G30" s="1">
         <v>6</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H30" s="1">
         <v>7</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I30" s="1">
         <v>8</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J30" s="1">
         <v>9</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K30" s="1">
         <v>10</v>
       </c>
-      <c r="L29" s="20">
+      <c r="L30" s="20">
         <v>11</v>
       </c>
-      <c r="M29" s="20">
+      <c r="M30" s="20">
         <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B30" s="26">
-        <v>2.133</v>
-      </c>
-      <c r="C30" s="26">
-        <v>0.53700000000000003</v>
-      </c>
-      <c r="D30" s="26">
-        <v>0.26500000000000001</v>
-      </c>
-      <c r="E30" s="26">
-        <v>0.34300000000000003</v>
-      </c>
-      <c r="F30" s="28">
-        <v>0.434</v>
-      </c>
-      <c r="G30" s="28">
-        <v>0.20100000000000001</v>
-      </c>
-      <c r="H30" s="28">
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="I30" s="29">
-        <v>0.39</v>
-      </c>
-      <c r="J30" s="29">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="K30" s="29">
-        <v>0.36799999999999999</v>
-      </c>
-      <c r="L30" s="21">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="M30" s="21">
-        <v>9.9000000000000005E-2</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B31" s="26">
-        <v>1.7709999999999999</v>
+        <v>2.133</v>
       </c>
       <c r="C31" s="26">
-        <v>0.55600000000000005</v>
+        <v>0.53700000000000003</v>
       </c>
       <c r="D31" s="26">
-        <v>0.25900000000000001</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="E31" s="26">
-        <v>0.34200000000000003</v>
+        <v>0.34300000000000003</v>
       </c>
       <c r="F31" s="28">
-        <v>0.441</v>
+        <v>0.434</v>
       </c>
       <c r="G31" s="28">
-        <v>0.188</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="H31" s="28">
-        <v>0.28899999999999998</v>
+        <v>0.29499999999999998</v>
       </c>
       <c r="I31" s="29">
-        <v>0.39100000000000001</v>
+        <v>0.39</v>
       </c>
       <c r="J31" s="29">
-        <v>0.183</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="K31" s="29">
-        <v>0.29499999999999998</v>
+        <v>0.36799999999999999</v>
       </c>
       <c r="L31" s="21">
-        <v>8.6999999999999994E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="M31" s="21">
-        <v>8.6999999999999994E-2</v>
+        <v>9.9000000000000005E-2</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B32" s="26">
-        <v>1.454</v>
+        <v>1.7709999999999999</v>
       </c>
       <c r="C32" s="26">
-        <v>0.66</v>
+        <v>0.55600000000000005</v>
       </c>
       <c r="D32" s="26">
-        <v>0.29599999999999999</v>
+        <v>0.25900000000000001</v>
       </c>
       <c r="E32" s="26">
-        <v>0.35299999999999998</v>
+        <v>0.34200000000000003</v>
       </c>
       <c r="F32" s="28">
-        <v>0.48499999999999999</v>
+        <v>0.441</v>
       </c>
       <c r="G32" s="28">
-        <v>0.26100000000000001</v>
+        <v>0.188</v>
       </c>
       <c r="H32" s="28">
-        <v>0.31</v>
+        <v>0.28899999999999998</v>
       </c>
       <c r="I32" s="29">
-        <v>0.43</v>
+        <v>0.39100000000000001</v>
       </c>
       <c r="J32" s="29">
-        <v>0.217</v>
+        <v>0.183</v>
       </c>
       <c r="K32" s="29">
-        <v>0.28499999999999998</v>
+        <v>0.29499999999999998</v>
       </c>
       <c r="L32" s="21">
-        <v>8.5000000000000006E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="M32" s="21">
-        <v>8.5000000000000006E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B33" s="26">
-        <v>1.0840000000000001</v>
+        <v>1.454</v>
       </c>
       <c r="C33" s="26">
-        <v>0.61699999999999999</v>
+        <v>0.66</v>
       </c>
       <c r="D33" s="26">
-        <v>0.29799999999999999</v>
+        <v>0.29599999999999999</v>
       </c>
       <c r="E33" s="26">
-        <v>0.376</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="F33" s="28">
-        <v>0.46300000000000002</v>
+        <v>0.48499999999999999</v>
       </c>
       <c r="G33" s="28">
-        <v>0.27100000000000002</v>
+        <v>0.26100000000000001</v>
       </c>
       <c r="H33" s="28">
-        <v>0.30099999999999999</v>
+        <v>0.31</v>
       </c>
       <c r="I33" s="29">
-        <v>0.40400000000000003</v>
+        <v>0.43</v>
       </c>
       <c r="J33" s="29">
-        <v>0.21199999999999999</v>
+        <v>0.217</v>
       </c>
       <c r="K33" s="29">
-        <v>0.27100000000000002</v>
+        <v>0.28499999999999998</v>
       </c>
       <c r="L33" s="21">
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="M33" s="21">
-        <v>8.4000000000000005E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B34" s="26">
-        <v>0.89600000000000002</v>
+        <v>1.0840000000000001</v>
       </c>
       <c r="C34" s="26">
-        <v>0.65</v>
+        <v>0.61699999999999999</v>
       </c>
       <c r="D34" s="26">
-        <v>0.34899999999999998</v>
+        <v>0.29799999999999999</v>
       </c>
       <c r="E34" s="26">
-        <v>0.38</v>
+        <v>0.376</v>
       </c>
       <c r="F34" s="28">
-        <v>0.50800000000000001</v>
+        <v>0.46300000000000002</v>
       </c>
       <c r="G34" s="28">
-        <v>0.28199999999999997</v>
+        <v>0.27100000000000002</v>
       </c>
       <c r="H34" s="28">
-        <v>0.317</v>
+        <v>0.30099999999999999</v>
       </c>
       <c r="I34" s="29">
-        <v>0.46600000000000003</v>
+        <v>0.40400000000000003</v>
       </c>
       <c r="J34" s="29">
-        <v>0.23899999999999999</v>
+        <v>0.21199999999999999</v>
       </c>
       <c r="K34" s="29">
-        <v>0.29099999999999998</v>
+        <v>0.27100000000000002</v>
       </c>
       <c r="L34" s="21">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="M34" s="21">
         <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="M34" s="21">
-        <v>8.5000000000000006E-2</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="26">
-        <v>0.72599999999999998</v>
+        <v>0.89600000000000002</v>
       </c>
       <c r="C35" s="26">
-        <v>0.64600000000000002</v>
+        <v>0.65</v>
       </c>
       <c r="D35" s="26">
-        <v>0.309</v>
+        <v>0.34899999999999998</v>
       </c>
       <c r="E35" s="26">
-        <v>0.379</v>
+        <v>0.38</v>
       </c>
       <c r="F35" s="28">
-        <v>0.46</v>
+        <v>0.50800000000000001</v>
       </c>
       <c r="G35" s="28">
-        <v>0.27</v>
+        <v>0.28199999999999997</v>
       </c>
       <c r="H35" s="28">
-        <v>0.32600000000000001</v>
+        <v>0.317</v>
       </c>
       <c r="I35" s="29">
-        <v>0.53</v>
+        <v>0.46600000000000003</v>
       </c>
       <c r="J35" s="29">
-        <v>0.21199999999999999</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="K35" s="29">
-        <v>0.27600000000000002</v>
+        <v>0.29099999999999998</v>
       </c>
       <c r="L35" s="21">
-        <v>8.5000000000000006E-2</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="M35" s="21">
-        <v>8.5999999999999993E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B36" s="26">
-        <v>0.51100000000000001</v>
+        <v>0.72599999999999998</v>
       </c>
       <c r="C36" s="26">
-        <v>8.7999999999999995E-2</v>
+        <v>0.64600000000000002</v>
       </c>
       <c r="D36" s="26">
-        <v>9.1999999999999998E-2</v>
+        <v>0.309</v>
       </c>
       <c r="E36" s="26">
-        <v>8.8999999999999996E-2</v>
+        <v>0.379</v>
       </c>
       <c r="F36" s="28">
-        <v>8.5999999999999993E-2</v>
+        <v>0.46</v>
       </c>
       <c r="G36" s="28">
-        <v>8.6999999999999994E-2</v>
+        <v>0.27</v>
       </c>
       <c r="H36" s="28">
-        <v>8.5999999999999993E-2</v>
+        <v>0.32600000000000001</v>
       </c>
       <c r="I36" s="29">
-        <v>8.5999999999999993E-2</v>
+        <v>0.53</v>
       </c>
       <c r="J36" s="29">
-        <v>8.4000000000000005E-2</v>
+        <v>0.21199999999999999</v>
       </c>
       <c r="K36" s="29">
-        <v>8.4000000000000005E-2</v>
+        <v>0.27600000000000002</v>
       </c>
       <c r="L36" s="21">
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="M36" s="21">
-        <v>9.1999999999999998E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37" s="26">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="C37" s="26">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="D37" s="26">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="E37" s="26">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="F37" s="28">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="G37" s="28">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="H37" s="28">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="I37" s="29">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="J37" s="29">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="K37" s="29">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="L37" s="21">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="M37" s="21">
+        <v>9.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B37" s="26">
+      <c r="B38" s="26">
         <v>0.26600000000000001</v>
       </c>
-      <c r="C37" s="26">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="D37" s="26">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="E37" s="26">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="F37" s="28">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="G37" s="28">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="H37" s="28">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="I37" s="29">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="J37" s="29">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="K37" s="29">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="L37" s="21">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="M37" s="21">
+      <c r="C38" s="26">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="D38" s="26">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="E38" s="26">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="F38" s="28">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="G38" s="28">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="H38" s="28">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="I38" s="29">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="J38" s="29">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="K38" s="29">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="L38" s="21">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="M38" s="21">
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B39" s="33" t="s">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B40" s="33" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B40" s="35" t="s">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B41" s="35" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B41" s="25" t="s">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B42" s="25" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B42" s="27" t="s">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B43" s="27" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B43" s="31" t="s">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B44" s="31" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B44" s="30" t="s">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B45" s="30" t="s">
         <v>142</v>
       </c>
     </row>
@@ -8199,10 +11082,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D779E97-2831-5F42-8D9B-B761EF868AA2}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="164" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8554,11 +11437,11 @@
         <v>145</v>
       </c>
       <c r="C13" s="23">
-        <f t="shared" ref="C13:J13" si="0">AVERAGE(C2:C3)</f>
+        <f>AVERAGE(C2:C3)</f>
         <v>0.51449999999999996</v>
       </c>
       <c r="D13" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C13:J13" si="0">AVERAGE(D2:D3)</f>
         <v>0.252</v>
       </c>
       <c r="E13" s="23">
@@ -8594,7 +11477,7 @@
         <v>146</v>
       </c>
       <c r="C14" s="23">
-        <f t="shared" ref="C14:K14" si="1">AVERAGE(C4:C5)</f>
+        <f t="shared" ref="C14:J14" si="1">AVERAGE(C4:C5)</f>
         <v>0.59899999999999998</v>
       </c>
       <c r="D14" s="23">
@@ -8669,6 +11552,48 @@
       <c r="K15" s="23">
         <f t="shared" si="2"/>
         <v>0.26550000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C22" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="D22" s="23">
+        <v>0.51449999999999996</v>
+      </c>
+      <c r="E22" s="23">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="F22" s="23">
+        <v>0.35599999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C23" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="D23" s="23">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="E23" s="23">
+        <v>0.435</v>
+      </c>
+      <c r="F23" s="23">
+        <v>0.38250000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C24" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="D24" s="23">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="E24" s="23">
+        <v>0.44350000000000001</v>
+      </c>
+      <c r="F24" s="23">
+        <v>0.45250000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -8677,16 +11602,1054 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11D31C30-9D16-7045-90B4-FEB9A80F7700}">
+  <dimension ref="B4:L34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="26">
+        <v>2.133</v>
+      </c>
+      <c r="D4" s="26">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="E4" s="26">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="F4" s="26">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="G4" s="28">
+        <v>0.434</v>
+      </c>
+      <c r="H4" s="28">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="I4" s="28">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="J4" s="29">
+        <v>0.39</v>
+      </c>
+      <c r="K4" s="29">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="L4" s="29">
+        <v>0.36799999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="26">
+        <v>1.7709999999999999</v>
+      </c>
+      <c r="D5" s="26">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="E5" s="26">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="F5" s="26">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="G5" s="28">
+        <v>0.441</v>
+      </c>
+      <c r="H5" s="28">
+        <v>0.188</v>
+      </c>
+      <c r="I5" s="28">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="J5" s="29">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="K5" s="29">
+        <v>0.183</v>
+      </c>
+      <c r="L5" s="29">
+        <v>0.29499999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="26">
+        <v>1.454</v>
+      </c>
+      <c r="D6" s="26">
+        <v>0.66</v>
+      </c>
+      <c r="E6" s="26">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="F6" s="26">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="G6" s="28">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="H6" s="28">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="I6" s="28">
+        <v>0.31</v>
+      </c>
+      <c r="J6" s="29">
+        <v>0.43</v>
+      </c>
+      <c r="K6" s="29">
+        <v>0.217</v>
+      </c>
+      <c r="L6" s="29">
+        <v>0.28499999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="26">
+        <v>1.0840000000000001</v>
+      </c>
+      <c r="D7" s="26">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="E7" s="26">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="F7" s="26">
+        <v>0.376</v>
+      </c>
+      <c r="G7" s="28">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="H7" s="28">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="I7" s="28">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="J7" s="29">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="K7" s="29">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="L7" s="29">
+        <v>0.27100000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="26">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="D8" s="26">
+        <v>0.65</v>
+      </c>
+      <c r="E8" s="26">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="F8" s="26">
+        <v>0.38</v>
+      </c>
+      <c r="G8" s="28">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="H8" s="28">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="I8" s="28">
+        <v>0.317</v>
+      </c>
+      <c r="J8" s="29">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="K8" s="29">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="L8" s="29">
+        <v>0.29099999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="26">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="D9" s="26">
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="E9" s="26">
+        <v>0.309</v>
+      </c>
+      <c r="F9" s="26">
+        <v>0.379</v>
+      </c>
+      <c r="G9" s="28">
+        <v>0.46</v>
+      </c>
+      <c r="H9" s="28">
+        <v>0.27</v>
+      </c>
+      <c r="I9" s="28">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="J9" s="29">
+        <v>0.53</v>
+      </c>
+      <c r="K9" s="29">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="L9" s="29">
+        <v>0.27600000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="26">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="D10" s="45">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="E10" s="45">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="F10" s="45">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="G10" s="45">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="H10" s="45">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="I10" s="45">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="J10" s="45">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="K10" s="45">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="L10" s="45">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="26">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="D11" s="45">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="E11" s="45">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="F11" s="45">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="G11" s="45">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="H11" s="45">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="I11" s="45">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="J11" s="45">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="K11" s="45">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="L11" s="45">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D15" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="E15" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="F15" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="G15" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="H15" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="I15" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="J15" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="K15" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="L15" s="38" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C16" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="D16" s="23">
+        <f>AVERAGE(D4:D5)</f>
+        <v>0.54649999999999999</v>
+      </c>
+      <c r="E16" s="23">
+        <f>AVERAGE(E4:E5)</f>
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="F16" s="23">
+        <f>AVERAGE(F4:F5)</f>
+        <v>0.34250000000000003</v>
+      </c>
+      <c r="G16" s="23">
+        <f t="shared" ref="F16:L16" si="0">AVERAGE(G4:G5)</f>
+        <v>0.4375</v>
+      </c>
+      <c r="H16" s="23">
+        <f t="shared" si="0"/>
+        <v>0.19450000000000001</v>
+      </c>
+      <c r="I16" s="23">
+        <f t="shared" si="0"/>
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="J16" s="23">
+        <f t="shared" si="0"/>
+        <v>0.39050000000000001</v>
+      </c>
+      <c r="K16" s="23">
+        <f t="shared" si="0"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="L16" s="23">
+        <f t="shared" si="0"/>
+        <v>0.33150000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C17" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="D17" s="23">
+        <f>AVERAGE(D6:D7)</f>
+        <v>0.63850000000000007</v>
+      </c>
+      <c r="E17" s="23">
+        <f t="shared" ref="E17:L17" si="1">AVERAGE(E6:E7)</f>
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="F17" s="23">
+        <f t="shared" si="1"/>
+        <v>0.36449999999999999</v>
+      </c>
+      <c r="G17" s="23">
+        <f t="shared" si="1"/>
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="H17" s="23">
+        <f t="shared" si="1"/>
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="I17" s="23">
+        <f t="shared" si="1"/>
+        <v>0.30549999999999999</v>
+      </c>
+      <c r="J17" s="23">
+        <f t="shared" si="1"/>
+        <v>0.41700000000000004</v>
+      </c>
+      <c r="K17" s="23">
+        <f t="shared" si="1"/>
+        <v>0.2145</v>
+      </c>
+      <c r="L17" s="23">
+        <f t="shared" si="1"/>
+        <v>0.27800000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C18" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="D18" s="23">
+        <f>AVERAGE(D8:D9)</f>
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="E18" s="23">
+        <f t="shared" ref="E18:L18" si="2">AVERAGE(E8:E9)</f>
+        <v>0.32899999999999996</v>
+      </c>
+      <c r="F18" s="23">
+        <f t="shared" si="2"/>
+        <v>0.3795</v>
+      </c>
+      <c r="G18" s="23">
+        <f t="shared" si="2"/>
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="H18" s="23">
+        <f t="shared" si="2"/>
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="I18" s="23">
+        <f t="shared" si="2"/>
+        <v>0.32150000000000001</v>
+      </c>
+      <c r="J18" s="23">
+        <f t="shared" si="2"/>
+        <v>0.498</v>
+      </c>
+      <c r="K18" s="23">
+        <f t="shared" si="2"/>
+        <v>0.22549999999999998</v>
+      </c>
+      <c r="L18" s="23">
+        <f t="shared" si="2"/>
+        <v>0.28349999999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="D23" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="E23" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="F23" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="G23" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="H23" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="I23" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="J23" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="K23" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="L23" s="37" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>145</v>
+      </c>
+      <c r="D24">
+        <v>0.54649999999999999</v>
+      </c>
+      <c r="E24">
+        <v>0.4375</v>
+      </c>
+      <c r="F24">
+        <v>0.39050000000000001</v>
+      </c>
+      <c r="G24">
+        <v>0.34250000000000003</v>
+      </c>
+      <c r="H24">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="I24">
+        <v>0.33150000000000002</v>
+      </c>
+      <c r="J24">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="K24">
+        <v>0.19450000000000001</v>
+      </c>
+      <c r="L24">
+        <v>0.17899999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>146</v>
+      </c>
+      <c r="D25">
+        <v>0.63850000000000007</v>
+      </c>
+      <c r="E25">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="F25">
+        <v>0.41700000000000004</v>
+      </c>
+      <c r="G25">
+        <v>0.36449999999999999</v>
+      </c>
+      <c r="H25">
+        <v>0.30549999999999999</v>
+      </c>
+      <c r="I25">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="J25">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="K25">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="L25">
+        <v>0.2145</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>147</v>
+      </c>
+      <c r="D26">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="E26">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="F26">
+        <v>0.498</v>
+      </c>
+      <c r="G26">
+        <v>0.3795</v>
+      </c>
+      <c r="H26">
+        <v>0.32150000000000001</v>
+      </c>
+      <c r="I26">
+        <v>0.28349999999999997</v>
+      </c>
+      <c r="J26">
+        <v>0.32899999999999996</v>
+      </c>
+      <c r="K26">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="L26">
+        <v>0.22549999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>145</v>
+      </c>
+      <c r="D31" t="s">
+        <v>146</v>
+      </c>
+      <c r="E31" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C32">
+        <v>0.54649999999999999</v>
+      </c>
+      <c r="D32">
+        <v>0.63850000000000007</v>
+      </c>
+      <c r="E32">
+        <v>0.64800000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C33">
+        <v>0.4375</v>
+      </c>
+      <c r="D33">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="E33">
+        <v>0.48399999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C34">
+        <v>0.39050000000000001</v>
+      </c>
+      <c r="D34">
+        <v>0.41700000000000004</v>
+      </c>
+      <c r="E34">
+        <v>0.498</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DED3DD8-CA06-DE47-87CD-6ADB972EE1C8}">
+  <dimension ref="A3:N60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B34" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N65" sqref="N65"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="44" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>500</v>
+      </c>
+      <c r="C4" s="11">
+        <v>2.0960000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>400</v>
+      </c>
+      <c r="C5" s="12">
+        <v>1.7450000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>300</v>
+      </c>
+      <c r="C6" s="15">
+        <v>1.4239999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>200</v>
+      </c>
+      <c r="C7" s="14">
+        <v>1.0569999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>150</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.86899999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>100</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0.69899999999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>50</v>
+      </c>
+      <c r="C10" s="10">
+        <v>0.48899999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.25800000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G34" t="s">
+        <v>151</v>
+      </c>
+      <c r="H34" t="s">
+        <v>152</v>
+      </c>
+      <c r="I34" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B35" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="F35" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="G35" s="23">
+        <v>0.51449999999999996</v>
+      </c>
+      <c r="H35" s="23">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="I35" s="23">
+        <v>0.35599999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>151</v>
+      </c>
+      <c r="B36" s="23">
+        <v>0.51449999999999996</v>
+      </c>
+      <c r="C36" s="23">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="D36" s="23">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="F36" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="G36" s="23">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="H36" s="23">
+        <v>0.435</v>
+      </c>
+      <c r="I36" s="23">
+        <v>0.38250000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>152</v>
+      </c>
+      <c r="B37" s="23">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="C37" s="23">
+        <v>0.435</v>
+      </c>
+      <c r="D37" s="23">
+        <v>0.44350000000000001</v>
+      </c>
+      <c r="F37" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="G37" s="23">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="H37" s="23">
+        <v>0.44350000000000001</v>
+      </c>
+      <c r="I37" s="23">
+        <v>0.45250000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>153</v>
+      </c>
+      <c r="B38" s="23">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="C38" s="23">
+        <v>0.38250000000000001</v>
+      </c>
+      <c r="D38" s="23">
+        <v>0.45250000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="B42">
+        <f>B36-0.3102</f>
+        <v>0.20429999999999998</v>
+      </c>
+      <c r="C42">
+        <f>C36-0.3102</f>
+        <v>0.2888</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ref="C42:D42" si="0">D36-0.3102</f>
+        <v>0.30580000000000002</v>
+      </c>
+      <c r="F42" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="G42" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="H42" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="I42" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="J42" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="K42" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="L42" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="M42" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="N42" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B43">
+        <f>B37-0.3102</f>
+        <v>9.1800000000000048E-2</v>
+      </c>
+      <c r="C43">
+        <f t="shared" ref="C43:D44" si="1">C37-0.3102</f>
+        <v>0.12480000000000002</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="1"/>
+        <v>0.13330000000000003</v>
+      </c>
+      <c r="F43" s="23">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="G43" s="23">
+        <v>0.38250000000000001</v>
+      </c>
+      <c r="H43" s="23">
+        <v>0.45250000000000001</v>
+      </c>
+      <c r="I43" s="23">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="J43" s="23">
+        <v>0.435</v>
+      </c>
+      <c r="K43" s="23">
+        <v>0.44350000000000001</v>
+      </c>
+      <c r="L43" s="23">
+        <v>0.51449999999999996</v>
+      </c>
+      <c r="M43" s="23">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="N43" s="23">
+        <v>0.61599999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B44">
+        <f t="shared" ref="B43:B44" si="2">B38-0.3102</f>
+        <v>4.5800000000000007E-2</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="1"/>
+        <v>7.2300000000000031E-2</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="1"/>
+        <v>0.14230000000000004</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B46">
+        <f>B36-0.0036</f>
+        <v>0.51089999999999991</v>
+      </c>
+      <c r="C46">
+        <f t="shared" ref="C46:D48" si="3">C36-0.0036</f>
+        <v>0.59539999999999993</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="3"/>
+        <v>0.61239999999999994</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B47">
+        <f>B37-0.0036</f>
+        <v>0.39840000000000003</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="3"/>
+        <v>0.43140000000000001</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="3"/>
+        <v>0.43990000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B48">
+        <f t="shared" ref="B47:B48" si="4">B38-0.0036</f>
+        <v>0.35239999999999999</v>
+      </c>
+      <c r="C48">
+        <f>C38-0.0036</f>
+        <v>0.37890000000000001</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="3"/>
+        <v>0.44890000000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>151</v>
+      </c>
+      <c r="C56" t="s">
+        <v>152</v>
+      </c>
+      <c r="D56" t="s">
+        <v>153</v>
+      </c>
+      <c r="F56" s="23">
+        <v>125</v>
+      </c>
+      <c r="G56" s="23">
+        <v>62.5</v>
+      </c>
+      <c r="H56" s="23">
+        <v>31.25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B57" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="C57" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="D57" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="F57" s="23">
+        <v>0.32450000000000001</v>
+      </c>
+      <c r="G57" s="23">
+        <v>0.33950000000000002</v>
+      </c>
+      <c r="H57" s="23">
+        <v>0.35699999999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="23">
+        <v>125</v>
+      </c>
+      <c r="C58" s="23">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="D58" s="23">
+        <v>0.27600000000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="23">
+        <v>62.5</v>
+      </c>
+      <c r="C59" s="23">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="D59" s="23">
+        <v>0.26100000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="23">
+        <v>31.25</v>
+      </c>
+      <c r="C60" s="23">
+        <v>0.30049999999999999</v>
+      </c>
+      <c r="D60" s="23">
+        <v>0.26550000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{872736F9-51BE-444C-A362-183514BD30A0}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="125" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -8708,16 +12671,16 @@
         <v>165</v>
       </c>
       <c r="E2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F2" t="s">
         <v>166</v>
-      </c>
-      <c r="F2" t="s">
-        <v>167</v>
       </c>
       <c r="G2" t="s">
         <v>155</v>
       </c>
       <c r="H2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -8872,7 +12835,7 @@
         <v>0.25800000000000001</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C10" s="42"/>
       <c r="D10" t="s">
